--- a/artfynd/A 58169-2025 artfynd.xlsx
+++ b/artfynd/A 58169-2025 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>130962874</v>
       </c>
       <c r="B2" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>130963946</v>
       </c>
       <c r="B3" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -912,7 +912,7 @@
         <v>130961057</v>
       </c>
       <c r="B4" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -1024,7 +1024,7 @@
         <v>130960607</v>
       </c>
       <c r="B5" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1136,7 +1136,7 @@
         <v>130963816</v>
       </c>
       <c r="B6" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1248,7 +1248,7 @@
         <v>130961962</v>
       </c>
       <c r="B7" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1355,7 +1355,7 @@
         <v>130961458</v>
       </c>
       <c r="B8" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>130962883</v>
       </c>
       <c r="B9" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1678,10 +1678,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>130961218</v>
+        <v>130961179</v>
       </c>
       <c r="B11" t="n">
-        <v>57880</v>
+        <v>79862</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1689,29 +1689,24 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100109</v>
+        <v>6453</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P11" t="inlineStr">
         <is>
           <t>Effaråsen, Dlr</t>
@@ -1764,6 +1759,11 @@
       <c r="AB11" t="inlineStr">
         <is>
           <t>10:26</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>Ringhack på stam i bakgrund</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1790,10 +1790,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>130961179</v>
+        <v>130961218</v>
       </c>
       <c r="B12" t="n">
-        <v>79858</v>
+        <v>57884</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1801,24 +1801,29 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6453</v>
+        <v>100109</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P12" t="inlineStr">
         <is>
           <t>Effaråsen, Dlr</t>
@@ -1871,11 +1876,6 @@
       <c r="AB12" t="inlineStr">
         <is>
           <t>10:26</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>Ringhack på stam i bakgrund</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1905,7 +1905,7 @@
         <v>130963873</v>
       </c>
       <c r="B13" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
         <v>130961060</v>
       </c>
       <c r="B14" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2119,7 +2119,7 @@
         <v>130961105</v>
       </c>
       <c r="B15" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         <v>130963950</v>
       </c>
       <c r="B16" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2330,10 +2330,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>130960789</v>
+        <v>130960378</v>
       </c>
       <c r="B17" t="n">
-        <v>79239</v>
+        <v>57884</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2341,34 +2341,39 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P17" t="inlineStr">
         <is>
           <t>Effaråsen, Dlr</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>446284</v>
+        <v>446272</v>
       </c>
       <c r="R17" t="n">
-        <v>6759886</v>
+        <v>6759739</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2437,10 +2442,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>130961956</v>
+        <v>130960789</v>
       </c>
       <c r="B18" t="n">
-        <v>79858</v>
+        <v>79243</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2448,21 +2453,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6453</v>
+        <v>6425</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2472,10 +2477,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>446084</v>
+        <v>446284</v>
       </c>
       <c r="R18" t="n">
-        <v>6759981</v>
+        <v>6759886</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2518,11 +2523,6 @@
       <c r="AB18" t="inlineStr">
         <is>
           <t>10:26</t>
-        </is>
-      </c>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>Miljöbilder</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2552,7 +2552,7 @@
         <v>130960843</v>
       </c>
       <c r="B19" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2656,10 +2656,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>130960378</v>
+        <v>130961956</v>
       </c>
       <c r="B20" t="n">
-        <v>57880</v>
+        <v>79862</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2667,39 +2667,34 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>100109</v>
+        <v>6453</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P20" t="inlineStr">
         <is>
           <t>Effaråsen, Dlr</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>446272</v>
+        <v>446084</v>
       </c>
       <c r="R20" t="n">
-        <v>6759739</v>
+        <v>6759981</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2742,6 +2737,11 @@
       <c r="AB20" t="inlineStr">
         <is>
           <t>10:26</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>Miljöbilder</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2771,7 +2771,7 @@
         <v>130960631</v>
       </c>
       <c r="B21" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2875,10 +2875,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>130962722</v>
+        <v>130963976</v>
       </c>
       <c r="B22" t="n">
-        <v>79858</v>
+        <v>79243</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2886,21 +2886,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6453</v>
+        <v>6425</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2910,10 +2910,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>446008</v>
+        <v>445929</v>
       </c>
       <c r="R22" t="n">
-        <v>6759948</v>
+        <v>6760099</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2945,7 +2945,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>10:26</t>
+          <t>14:08</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -2955,7 +2955,12 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>10:26</t>
+          <t>14:08</t>
+        </is>
+      </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>Miljöbild</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -2982,10 +2987,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>130962640</v>
+        <v>130962722</v>
       </c>
       <c r="B23" t="n">
-        <v>79858</v>
+        <v>79862</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -3017,10 +3022,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>446038</v>
+        <v>446008</v>
       </c>
       <c r="R23" t="n">
-        <v>6759945</v>
+        <v>6759948</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3089,10 +3094,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>130963976</v>
+        <v>130962640</v>
       </c>
       <c r="B24" t="n">
-        <v>79239</v>
+        <v>79862</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3100,21 +3105,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6425</v>
+        <v>6453</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3124,10 +3129,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>445929</v>
+        <v>446038</v>
       </c>
       <c r="R24" t="n">
-        <v>6760099</v>
+        <v>6759945</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3159,7 +3164,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>14:08</t>
+          <t>10:26</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3169,12 +3174,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>14:08</t>
-        </is>
-      </c>
-      <c r="AC24" t="inlineStr">
-        <is>
-          <t>Miljöbild</t>
+          <t>10:26</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3201,10 +3201,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>130962090</v>
+        <v>130961746</v>
       </c>
       <c r="B25" t="n">
-        <v>79239</v>
+        <v>57881</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3212,34 +3212,39 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P25" t="inlineStr">
         <is>
           <t>Effaråsen, Dlr</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>446080</v>
+        <v>446098</v>
       </c>
       <c r="R25" t="n">
-        <v>6759960</v>
+        <v>6760061</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3308,10 +3313,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>130961746</v>
+        <v>130962090</v>
       </c>
       <c r="B26" t="n">
-        <v>57877</v>
+        <v>79243</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3319,39 +3324,34 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P26" t="inlineStr">
         <is>
           <t>Effaråsen, Dlr</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>446098</v>
+        <v>446080</v>
       </c>
       <c r="R26" t="n">
-        <v>6760061</v>
+        <v>6759960</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3420,10 +3420,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>130963807</v>
+        <v>130961461</v>
       </c>
       <c r="B27" t="n">
-        <v>57877</v>
+        <v>79243</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3431,39 +3431,34 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P27" t="inlineStr">
         <is>
           <t>Effaråsen, Dlr</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>445932</v>
+        <v>446088</v>
       </c>
       <c r="R27" t="n">
-        <v>6760079</v>
+        <v>6760088</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3495,7 +3490,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>14:08</t>
+          <t>10:26</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3505,7 +3500,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>14:08</t>
+          <t>10:26</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3532,10 +3527,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>130961461</v>
+        <v>130961750</v>
       </c>
       <c r="B28" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3567,10 +3562,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>446088</v>
+        <v>446098</v>
       </c>
       <c r="R28" t="n">
-        <v>6760088</v>
+        <v>6760061</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3613,6 +3608,11 @@
       <c r="AB28" t="inlineStr">
         <is>
           <t>10:26</t>
+        </is>
+      </c>
+      <c r="AC28" t="inlineStr">
+        <is>
+          <t>Rikligt i en radie av ca 50 meter</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3639,10 +3639,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>130961750</v>
+        <v>130963807</v>
       </c>
       <c r="B29" t="n">
-        <v>79239</v>
+        <v>57881</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3650,34 +3650,39 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P29" t="inlineStr">
         <is>
           <t>Effaråsen, Dlr</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>446098</v>
+        <v>445932</v>
       </c>
       <c r="R29" t="n">
-        <v>6760061</v>
+        <v>6760079</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3709,7 +3714,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>10:26</t>
+          <t>14:08</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -3719,12 +3724,7 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>10:26</t>
-        </is>
-      </c>
-      <c r="AC29" t="inlineStr">
-        <is>
-          <t>Rikligt i en radie av ca 50 meter</t>
+          <t>14:08</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3754,7 +3754,7 @@
         <v>130962736</v>
       </c>
       <c r="B30" t="n">
-        <v>79829</v>
+        <v>79833</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3861,7 +3861,7 @@
         <v>130964752</v>
       </c>
       <c r="B31" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3968,7 +3968,7 @@
         <v>130964305</v>
       </c>
       <c r="B32" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>130962676</v>
       </c>
       <c r="B33" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -4182,7 +4182,7 @@
         <v>130961219</v>
       </c>
       <c r="B34" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>130964300</v>
       </c>
       <c r="B35" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>

--- a/artfynd/A 58169-2025 artfynd.xlsx
+++ b/artfynd/A 58169-2025 artfynd.xlsx
@@ -2330,10 +2330,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>130960378</v>
+        <v>130960789</v>
       </c>
       <c r="B17" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2341,39 +2341,34 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P17" t="inlineStr">
         <is>
           <t>Effaråsen, Dlr</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>446272</v>
+        <v>446284</v>
       </c>
       <c r="R17" t="n">
-        <v>6759739</v>
+        <v>6759886</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2442,7 +2437,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>130960789</v>
+        <v>130960843</v>
       </c>
       <c r="B18" t="n">
         <v>79243</v>
@@ -2477,10 +2472,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>446284</v>
+        <v>446247</v>
       </c>
       <c r="R18" t="n">
-        <v>6759886</v>
+        <v>6759903</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2549,10 +2544,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>130960843</v>
+        <v>130961956</v>
       </c>
       <c r="B19" t="n">
-        <v>79243</v>
+        <v>79862</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2560,21 +2555,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6425</v>
+        <v>6453</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2584,10 +2579,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>446247</v>
+        <v>446084</v>
       </c>
       <c r="R19" t="n">
-        <v>6759903</v>
+        <v>6759981</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2630,6 +2625,11 @@
       <c r="AB19" t="inlineStr">
         <is>
           <t>10:26</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>Miljöbilder</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2656,10 +2656,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>130961956</v>
+        <v>130960378</v>
       </c>
       <c r="B20" t="n">
-        <v>79862</v>
+        <v>57884</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2667,34 +2667,39 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6453</v>
+        <v>100109</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P20" t="inlineStr">
         <is>
           <t>Effaråsen, Dlr</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>446084</v>
+        <v>446272</v>
       </c>
       <c r="R20" t="n">
-        <v>6759981</v>
+        <v>6759739</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2737,11 +2742,6 @@
       <c r="AB20" t="inlineStr">
         <is>
           <t>10:26</t>
-        </is>
-      </c>
-      <c r="AC20" t="inlineStr">
-        <is>
-          <t>Miljöbilder</t>
         </is>
       </c>
       <c r="AD20" t="b">

--- a/artfynd/A 58169-2025 artfynd.xlsx
+++ b/artfynd/A 58169-2025 artfynd.xlsx
@@ -2330,10 +2330,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>130960789</v>
+        <v>130960378</v>
       </c>
       <c r="B17" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2341,34 +2341,39 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P17" t="inlineStr">
         <is>
           <t>Effaråsen, Dlr</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>446284</v>
+        <v>446272</v>
       </c>
       <c r="R17" t="n">
-        <v>6759886</v>
+        <v>6759739</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2437,7 +2442,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>130960843</v>
+        <v>130960789</v>
       </c>
       <c r="B18" t="n">
         <v>79243</v>
@@ -2472,10 +2477,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>446247</v>
+        <v>446284</v>
       </c>
       <c r="R18" t="n">
-        <v>6759903</v>
+        <v>6759886</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2656,10 +2661,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>130960378</v>
+        <v>130960843</v>
       </c>
       <c r="B20" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2667,39 +2672,34 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P20" t="inlineStr">
         <is>
           <t>Effaråsen, Dlr</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>446272</v>
+        <v>446247</v>
       </c>
       <c r="R20" t="n">
-        <v>6759739</v>
+        <v>6759903</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2875,10 +2875,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>130963976</v>
+        <v>130962722</v>
       </c>
       <c r="B22" t="n">
-        <v>79243</v>
+        <v>79862</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2886,21 +2886,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6425</v>
+        <v>6453</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2910,10 +2910,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>445929</v>
+        <v>446008</v>
       </c>
       <c r="R22" t="n">
-        <v>6760099</v>
+        <v>6759948</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2945,7 +2945,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>14:08</t>
+          <t>10:26</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -2955,12 +2955,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>14:08</t>
-        </is>
-      </c>
-      <c r="AC22" t="inlineStr">
-        <is>
-          <t>Miljöbild</t>
+          <t>10:26</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -2987,10 +2982,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>130962722</v>
+        <v>130963976</v>
       </c>
       <c r="B23" t="n">
-        <v>79862</v>
+        <v>79243</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2998,21 +2993,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6453</v>
+        <v>6425</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3022,10 +3017,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>446008</v>
+        <v>445929</v>
       </c>
       <c r="R23" t="n">
-        <v>6759948</v>
+        <v>6760099</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3057,7 +3052,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>10:26</t>
+          <t>14:08</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3067,7 +3062,12 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>10:26</t>
+          <t>14:08</t>
+        </is>
+      </c>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>Miljöbild</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3201,10 +3201,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>130961746</v>
+        <v>130962090</v>
       </c>
       <c r="B25" t="n">
-        <v>57881</v>
+        <v>79243</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3212,39 +3212,34 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P25" t="inlineStr">
         <is>
           <t>Effaråsen, Dlr</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>446098</v>
+        <v>446080</v>
       </c>
       <c r="R25" t="n">
-        <v>6760061</v>
+        <v>6759960</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3313,10 +3308,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>130962090</v>
+        <v>130961746</v>
       </c>
       <c r="B26" t="n">
-        <v>79243</v>
+        <v>57881</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3324,34 +3319,39 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P26" t="inlineStr">
         <is>
           <t>Effaråsen, Dlr</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>446080</v>
+        <v>446098</v>
       </c>
       <c r="R26" t="n">
-        <v>6759960</v>
+        <v>6760061</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3639,10 +3639,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>130963807</v>
+        <v>130962736</v>
       </c>
       <c r="B29" t="n">
-        <v>57881</v>
+        <v>79833</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3650,39 +3650,34 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>100049</v>
+        <v>229821</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P29" t="inlineStr">
         <is>
           <t>Effaråsen, Dlr</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>445932</v>
+        <v>446008</v>
       </c>
       <c r="R29" t="n">
-        <v>6760079</v>
+        <v>6759948</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3714,7 +3709,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>14:08</t>
+          <t>10:26</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -3724,7 +3719,7 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>14:08</t>
+          <t>10:26</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3751,10 +3746,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>130962736</v>
+        <v>130963807</v>
       </c>
       <c r="B30" t="n">
-        <v>79833</v>
+        <v>57881</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3762,34 +3757,39 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>229821</v>
+        <v>100049</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P30" t="inlineStr">
         <is>
           <t>Effaråsen, Dlr</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>446008</v>
+        <v>445932</v>
       </c>
       <c r="R30" t="n">
-        <v>6759948</v>
+        <v>6760079</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3821,7 +3821,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>10:26</t>
+          <t>14:08</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -3831,7 +3831,7 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>10:26</t>
+          <t>14:08</t>
         </is>
       </c>
       <c r="AD30" t="b">

--- a/artfynd/A 58169-2025 artfynd.xlsx
+++ b/artfynd/A 58169-2025 artfynd.xlsx
@@ -3639,10 +3639,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>130962736</v>
+        <v>130963807</v>
       </c>
       <c r="B29" t="n">
-        <v>79833</v>
+        <v>57881</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3650,34 +3650,39 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>229821</v>
+        <v>100049</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P29" t="inlineStr">
         <is>
           <t>Effaråsen, Dlr</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>446008</v>
+        <v>445932</v>
       </c>
       <c r="R29" t="n">
-        <v>6759948</v>
+        <v>6760079</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3709,7 +3714,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>10:26</t>
+          <t>14:08</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -3719,7 +3724,7 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>10:26</t>
+          <t>14:08</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3746,10 +3751,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>130963807</v>
+        <v>130962736</v>
       </c>
       <c r="B30" t="n">
-        <v>57881</v>
+        <v>79833</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3757,39 +3762,34 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>100049</v>
+        <v>229821</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P30" t="inlineStr">
         <is>
           <t>Effaråsen, Dlr</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>445932</v>
+        <v>446008</v>
       </c>
       <c r="R30" t="n">
-        <v>6760079</v>
+        <v>6759948</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3821,7 +3821,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>14:08</t>
+          <t>10:26</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -3831,7 +3831,7 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>14:08</t>
+          <t>10:26</t>
         </is>
       </c>
       <c r="AD30" t="b">

--- a/artfynd/A 58169-2025 artfynd.xlsx
+++ b/artfynd/A 58169-2025 artfynd.xlsx
@@ -1245,7 +1245,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>130961962</v>
+        <v>130961458</v>
       </c>
       <c r="B7" t="n">
         <v>79243</v>
@@ -1280,10 +1280,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>446084</v>
+        <v>446059</v>
       </c>
       <c r="R7" t="n">
-        <v>6759981</v>
+        <v>6760088</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1352,7 +1352,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>130961458</v>
+        <v>130961962</v>
       </c>
       <c r="B8" t="n">
         <v>79243</v>
@@ -1387,10 +1387,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>446059</v>
+        <v>446084</v>
       </c>
       <c r="R8" t="n">
-        <v>6760088</v>
+        <v>6759981</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1459,45 +1459,50 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>130962883</v>
+        <v>130960395</v>
       </c>
       <c r="B9" t="n">
-        <v>79243</v>
+        <v>8451</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6425</v>
+        <v>106545</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="P9" t="inlineStr">
         <is>
           <t>Effaråsen, Dlr</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>445987</v>
+        <v>446272</v>
       </c>
       <c r="R9" t="n">
-        <v>6759938</v>
+        <v>6759739</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1566,50 +1571,45 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>130960395</v>
+        <v>130962883</v>
       </c>
       <c r="B10" t="n">
-        <v>8451</v>
+        <v>79243</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>106545</v>
+        <v>6425</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="P10" t="inlineStr">
         <is>
           <t>Effaråsen, Dlr</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>446272</v>
+        <v>445987</v>
       </c>
       <c r="R10" t="n">
-        <v>6759739</v>
+        <v>6759938</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1902,7 +1902,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>130963873</v>
+        <v>130963950</v>
       </c>
       <c r="B13" t="n">
         <v>79243</v>
@@ -1937,10 +1937,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>445938</v>
+        <v>445926</v>
       </c>
       <c r="R13" t="n">
-        <v>6760155</v>
+        <v>6760113</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>130961060</v>
+        <v>130961105</v>
       </c>
       <c r="B14" t="n">
         <v>79243</v>
@@ -2044,10 +2044,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>446138</v>
+        <v>446124</v>
       </c>
       <c r="R14" t="n">
-        <v>6759967</v>
+        <v>6759989</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2116,7 +2116,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>130961105</v>
+        <v>130961060</v>
       </c>
       <c r="B15" t="n">
         <v>79243</v>
@@ -2151,10 +2151,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>446124</v>
+        <v>446138</v>
       </c>
       <c r="R15" t="n">
-        <v>6759989</v>
+        <v>6759967</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2223,7 +2223,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>130963950</v>
+        <v>130963873</v>
       </c>
       <c r="B16" t="n">
         <v>79243</v>
@@ -2258,10 +2258,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>445926</v>
+        <v>445938</v>
       </c>
       <c r="R16" t="n">
-        <v>6760113</v>
+        <v>6760155</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2330,10 +2330,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>130960378</v>
+        <v>130960843</v>
       </c>
       <c r="B17" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2341,39 +2341,34 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P17" t="inlineStr">
         <is>
           <t>Effaråsen, Dlr</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>446272</v>
+        <v>446247</v>
       </c>
       <c r="R17" t="n">
-        <v>6759739</v>
+        <v>6759903</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2442,10 +2437,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>130960789</v>
+        <v>130960378</v>
       </c>
       <c r="B18" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2453,34 +2448,39 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P18" t="inlineStr">
         <is>
           <t>Effaråsen, Dlr</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>446284</v>
+        <v>446272</v>
       </c>
       <c r="R18" t="n">
-        <v>6759886</v>
+        <v>6759739</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2549,10 +2549,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>130961956</v>
+        <v>130960789</v>
       </c>
       <c r="B19" t="n">
-        <v>79862</v>
+        <v>79243</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2560,21 +2560,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6453</v>
+        <v>6425</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2584,10 +2584,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>446084</v>
+        <v>446284</v>
       </c>
       <c r="R19" t="n">
-        <v>6759981</v>
+        <v>6759886</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2630,11 +2630,6 @@
       <c r="AB19" t="inlineStr">
         <is>
           <t>10:26</t>
-        </is>
-      </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>Miljöbilder</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2661,10 +2656,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>130960843</v>
+        <v>130961956</v>
       </c>
       <c r="B20" t="n">
-        <v>79243</v>
+        <v>79862</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2672,21 +2667,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6425</v>
+        <v>6453</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2696,10 +2691,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>446247</v>
+        <v>446084</v>
       </c>
       <c r="R20" t="n">
-        <v>6759903</v>
+        <v>6759981</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2742,6 +2737,11 @@
       <c r="AB20" t="inlineStr">
         <is>
           <t>10:26</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>Miljöbilder</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2875,7 +2875,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>130962722</v>
+        <v>130962640</v>
       </c>
       <c r="B22" t="n">
         <v>79862</v>
@@ -2910,10 +2910,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>446008</v>
+        <v>446038</v>
       </c>
       <c r="R22" t="n">
-        <v>6759948</v>
+        <v>6759945</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3094,7 +3094,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>130962640</v>
+        <v>130962722</v>
       </c>
       <c r="B24" t="n">
         <v>79862</v>
@@ -3129,10 +3129,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>446038</v>
+        <v>446008</v>
       </c>
       <c r="R24" t="n">
-        <v>6759945</v>
+        <v>6759948</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3420,10 +3420,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>130961461</v>
+        <v>130962736</v>
       </c>
       <c r="B27" t="n">
-        <v>79243</v>
+        <v>79833</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3431,21 +3431,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6425</v>
+        <v>229821</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3455,10 +3455,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>446088</v>
+        <v>446008</v>
       </c>
       <c r="R27" t="n">
-        <v>6760088</v>
+        <v>6759948</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3527,10 +3527,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>130961750</v>
+        <v>130963807</v>
       </c>
       <c r="B28" t="n">
-        <v>79243</v>
+        <v>57881</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3538,34 +3538,39 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P28" t="inlineStr">
         <is>
           <t>Effaråsen, Dlr</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>446098</v>
+        <v>445932</v>
       </c>
       <c r="R28" t="n">
-        <v>6760061</v>
+        <v>6760079</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3597,7 +3602,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>10:26</t>
+          <t>14:08</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -3607,12 +3612,7 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>10:26</t>
-        </is>
-      </c>
-      <c r="AC28" t="inlineStr">
-        <is>
-          <t>Rikligt i en radie av ca 50 meter</t>
+          <t>14:08</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3639,10 +3639,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>130963807</v>
+        <v>130961750</v>
       </c>
       <c r="B29" t="n">
-        <v>57881</v>
+        <v>79243</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3650,39 +3650,34 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P29" t="inlineStr">
         <is>
           <t>Effaråsen, Dlr</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>445932</v>
+        <v>446098</v>
       </c>
       <c r="R29" t="n">
-        <v>6760079</v>
+        <v>6760061</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3714,7 +3709,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>14:08</t>
+          <t>10:26</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -3724,7 +3719,12 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>14:08</t>
+          <t>10:26</t>
+        </is>
+      </c>
+      <c r="AC29" t="inlineStr">
+        <is>
+          <t>Rikligt i en radie av ca 50 meter</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3751,10 +3751,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>130962736</v>
+        <v>130961461</v>
       </c>
       <c r="B30" t="n">
-        <v>79833</v>
+        <v>79243</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3762,21 +3762,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>229821</v>
+        <v>6425</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3786,10 +3786,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>446008</v>
+        <v>446088</v>
       </c>
       <c r="R30" t="n">
-        <v>6759948</v>
+        <v>6760088</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3965,7 +3965,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>130964305</v>
+        <v>130962676</v>
       </c>
       <c r="B32" t="n">
         <v>79243</v>
@@ -4000,10 +4000,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>445980</v>
+        <v>446038</v>
       </c>
       <c r="R32" t="n">
-        <v>6759927</v>
+        <v>6759945</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4035,7 +4035,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>14:08</t>
+          <t>10:26</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -4045,7 +4045,7 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>14:08</t>
+          <t>10:26</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4072,7 +4072,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>130962676</v>
+        <v>130964305</v>
       </c>
       <c r="B33" t="n">
         <v>79243</v>
@@ -4107,10 +4107,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>446038</v>
+        <v>445980</v>
       </c>
       <c r="R33" t="n">
-        <v>6759945</v>
+        <v>6759927</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4142,7 +4142,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>10:26</t>
+          <t>14:08</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -4152,7 +4152,7 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>10:26</t>
+          <t>14:08</t>
         </is>
       </c>
       <c r="AD33" t="b">

--- a/artfynd/A 58169-2025 artfynd.xlsx
+++ b/artfynd/A 58169-2025 artfynd.xlsx
@@ -1245,7 +1245,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>130961458</v>
+        <v>130961962</v>
       </c>
       <c r="B7" t="n">
         <v>79243</v>
@@ -1280,10 +1280,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>446059</v>
+        <v>446084</v>
       </c>
       <c r="R7" t="n">
-        <v>6760088</v>
+        <v>6759981</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1352,7 +1352,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>130961962</v>
+        <v>130961458</v>
       </c>
       <c r="B8" t="n">
         <v>79243</v>
@@ -1387,10 +1387,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>446084</v>
+        <v>446059</v>
       </c>
       <c r="R8" t="n">
-        <v>6759981</v>
+        <v>6760088</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1459,50 +1459,45 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>130960395</v>
+        <v>130962883</v>
       </c>
       <c r="B9" t="n">
-        <v>8451</v>
+        <v>79243</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>106545</v>
+        <v>6425</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="P9" t="inlineStr">
         <is>
           <t>Effaråsen, Dlr</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>446272</v>
+        <v>445987</v>
       </c>
       <c r="R9" t="n">
-        <v>6759739</v>
+        <v>6759938</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1571,45 +1566,50 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>130962883</v>
+        <v>130960395</v>
       </c>
       <c r="B10" t="n">
-        <v>79243</v>
+        <v>8451</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6425</v>
+        <v>106545</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="P10" t="inlineStr">
         <is>
           <t>Effaråsen, Dlr</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>445987</v>
+        <v>446272</v>
       </c>
       <c r="R10" t="n">
-        <v>6759938</v>
+        <v>6759739</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1902,7 +1902,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>130963950</v>
+        <v>130963873</v>
       </c>
       <c r="B13" t="n">
         <v>79243</v>
@@ -1937,10 +1937,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>445926</v>
+        <v>445938</v>
       </c>
       <c r="R13" t="n">
-        <v>6760113</v>
+        <v>6760155</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>130961105</v>
+        <v>130961060</v>
       </c>
       <c r="B14" t="n">
         <v>79243</v>
@@ -2044,10 +2044,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>446124</v>
+        <v>446138</v>
       </c>
       <c r="R14" t="n">
-        <v>6759989</v>
+        <v>6759967</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2116,7 +2116,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>130961060</v>
+        <v>130961105</v>
       </c>
       <c r="B15" t="n">
         <v>79243</v>
@@ -2151,10 +2151,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>446138</v>
+        <v>446124</v>
       </c>
       <c r="R15" t="n">
-        <v>6759967</v>
+        <v>6759989</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2223,7 +2223,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>130963873</v>
+        <v>130963950</v>
       </c>
       <c r="B16" t="n">
         <v>79243</v>
@@ -2258,10 +2258,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>445938</v>
+        <v>445926</v>
       </c>
       <c r="R16" t="n">
-        <v>6760155</v>
+        <v>6760113</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2330,10 +2330,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>130960843</v>
+        <v>130961956</v>
       </c>
       <c r="B17" t="n">
-        <v>79243</v>
+        <v>79862</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2341,21 +2341,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6425</v>
+        <v>6453</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2365,10 +2365,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>446247</v>
+        <v>446084</v>
       </c>
       <c r="R17" t="n">
-        <v>6759903</v>
+        <v>6759981</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2411,6 +2411,11 @@
       <c r="AB17" t="inlineStr">
         <is>
           <t>10:26</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>Miljöbilder</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2437,10 +2442,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>130960378</v>
+        <v>130960789</v>
       </c>
       <c r="B18" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2448,39 +2453,34 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P18" t="inlineStr">
         <is>
           <t>Effaråsen, Dlr</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>446272</v>
+        <v>446284</v>
       </c>
       <c r="R18" t="n">
-        <v>6759739</v>
+        <v>6759886</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2549,7 +2549,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>130960789</v>
+        <v>130960843</v>
       </c>
       <c r="B19" t="n">
         <v>79243</v>
@@ -2584,10 +2584,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>446284</v>
+        <v>446247</v>
       </c>
       <c r="R19" t="n">
-        <v>6759886</v>
+        <v>6759903</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2656,10 +2656,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>130961956</v>
+        <v>130960378</v>
       </c>
       <c r="B20" t="n">
-        <v>79862</v>
+        <v>57884</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2667,34 +2667,39 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6453</v>
+        <v>100109</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P20" t="inlineStr">
         <is>
           <t>Effaråsen, Dlr</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>446084</v>
+        <v>446272</v>
       </c>
       <c r="R20" t="n">
-        <v>6759981</v>
+        <v>6759739</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2737,11 +2742,6 @@
       <c r="AB20" t="inlineStr">
         <is>
           <t>10:26</t>
-        </is>
-      </c>
-      <c r="AC20" t="inlineStr">
-        <is>
-          <t>Miljöbilder</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2875,7 +2875,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>130962640</v>
+        <v>130962722</v>
       </c>
       <c r="B22" t="n">
         <v>79862</v>
@@ -2910,10 +2910,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>446038</v>
+        <v>446008</v>
       </c>
       <c r="R22" t="n">
-        <v>6759945</v>
+        <v>6759948</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2982,10 +2982,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>130963976</v>
+        <v>130962640</v>
       </c>
       <c r="B23" t="n">
-        <v>79243</v>
+        <v>79862</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2993,21 +2993,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6425</v>
+        <v>6453</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3017,10 +3017,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>445929</v>
+        <v>446038</v>
       </c>
       <c r="R23" t="n">
-        <v>6760099</v>
+        <v>6759945</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3052,7 +3052,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>14:08</t>
+          <t>10:26</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3062,12 +3062,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>14:08</t>
-        </is>
-      </c>
-      <c r="AC23" t="inlineStr">
-        <is>
-          <t>Miljöbild</t>
+          <t>10:26</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3094,10 +3089,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>130962722</v>
+        <v>130963976</v>
       </c>
       <c r="B24" t="n">
-        <v>79862</v>
+        <v>79243</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3105,21 +3100,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6453</v>
+        <v>6425</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3129,10 +3124,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>446008</v>
+        <v>445929</v>
       </c>
       <c r="R24" t="n">
-        <v>6759948</v>
+        <v>6760099</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3164,7 +3159,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>10:26</t>
+          <t>14:08</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3174,7 +3169,12 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>10:26</t>
+          <t>14:08</t>
+        </is>
+      </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>Miljöbild</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3420,10 +3420,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>130962736</v>
+        <v>130961461</v>
       </c>
       <c r="B27" t="n">
-        <v>79833</v>
+        <v>79243</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3431,21 +3431,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>229821</v>
+        <v>6425</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3455,10 +3455,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>446008</v>
+        <v>446088</v>
       </c>
       <c r="R27" t="n">
-        <v>6759948</v>
+        <v>6760088</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3527,10 +3527,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>130963807</v>
+        <v>130961750</v>
       </c>
       <c r="B28" t="n">
-        <v>57881</v>
+        <v>79243</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3538,39 +3538,34 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P28" t="inlineStr">
         <is>
           <t>Effaråsen, Dlr</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>445932</v>
+        <v>446098</v>
       </c>
       <c r="R28" t="n">
-        <v>6760079</v>
+        <v>6760061</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3602,7 +3597,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>14:08</t>
+          <t>10:26</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -3612,7 +3607,12 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>14:08</t>
+          <t>10:26</t>
+        </is>
+      </c>
+      <c r="AC28" t="inlineStr">
+        <is>
+          <t>Rikligt i en radie av ca 50 meter</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3639,10 +3639,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>130961750</v>
+        <v>130963807</v>
       </c>
       <c r="B29" t="n">
-        <v>79243</v>
+        <v>57881</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3650,34 +3650,39 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P29" t="inlineStr">
         <is>
           <t>Effaråsen, Dlr</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>446098</v>
+        <v>445932</v>
       </c>
       <c r="R29" t="n">
-        <v>6760061</v>
+        <v>6760079</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3709,7 +3714,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>10:26</t>
+          <t>14:08</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -3719,12 +3724,7 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>10:26</t>
-        </is>
-      </c>
-      <c r="AC29" t="inlineStr">
-        <is>
-          <t>Rikligt i en radie av ca 50 meter</t>
+          <t>14:08</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3751,10 +3751,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>130961461</v>
+        <v>130962736</v>
       </c>
       <c r="B30" t="n">
-        <v>79243</v>
+        <v>79833</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3762,21 +3762,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6425</v>
+        <v>229821</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3786,10 +3786,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>446088</v>
+        <v>446008</v>
       </c>
       <c r="R30" t="n">
-        <v>6760088</v>
+        <v>6759948</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3965,7 +3965,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>130962676</v>
+        <v>130964305</v>
       </c>
       <c r="B32" t="n">
         <v>79243</v>
@@ -4000,10 +4000,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>446038</v>
+        <v>445980</v>
       </c>
       <c r="R32" t="n">
-        <v>6759945</v>
+        <v>6759927</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4035,7 +4035,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>10:26</t>
+          <t>14:08</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -4045,7 +4045,7 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>10:26</t>
+          <t>14:08</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4072,7 +4072,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>130964305</v>
+        <v>130962676</v>
       </c>
       <c r="B33" t="n">
         <v>79243</v>
@@ -4107,10 +4107,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>445980</v>
+        <v>446038</v>
       </c>
       <c r="R33" t="n">
-        <v>6759927</v>
+        <v>6759945</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4142,7 +4142,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>14:08</t>
+          <t>10:26</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -4152,7 +4152,7 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>14:08</t>
+          <t>10:26</t>
         </is>
       </c>
       <c r="AD33" t="b">

--- a/artfynd/A 58169-2025 artfynd.xlsx
+++ b/artfynd/A 58169-2025 artfynd.xlsx
@@ -1459,45 +1459,50 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>130962883</v>
+        <v>130960395</v>
       </c>
       <c r="B9" t="n">
-        <v>79243</v>
+        <v>8451</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6425</v>
+        <v>106545</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="P9" t="inlineStr">
         <is>
           <t>Effaråsen, Dlr</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>445987</v>
+        <v>446272</v>
       </c>
       <c r="R9" t="n">
-        <v>6759938</v>
+        <v>6759739</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1566,50 +1571,45 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>130960395</v>
+        <v>130962883</v>
       </c>
       <c r="B10" t="n">
-        <v>8451</v>
+        <v>79243</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>106545</v>
+        <v>6425</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="P10" t="inlineStr">
         <is>
           <t>Effaråsen, Dlr</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>446272</v>
+        <v>445987</v>
       </c>
       <c r="R10" t="n">
-        <v>6759739</v>
+        <v>6759938</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1678,10 +1678,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>130961179</v>
+        <v>130961218</v>
       </c>
       <c r="B11" t="n">
-        <v>79862</v>
+        <v>57884</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1689,24 +1689,29 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6453</v>
+        <v>100109</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P11" t="inlineStr">
         <is>
           <t>Effaråsen, Dlr</t>
@@ -1759,11 +1764,6 @@
       <c r="AB11" t="inlineStr">
         <is>
           <t>10:26</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>Ringhack på stam i bakgrund</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1790,10 +1790,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>130961218</v>
+        <v>130961179</v>
       </c>
       <c r="B12" t="n">
-        <v>57884</v>
+        <v>79862</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1801,29 +1801,24 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>100109</v>
+        <v>6453</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P12" t="inlineStr">
         <is>
           <t>Effaråsen, Dlr</t>
@@ -1876,6 +1871,11 @@
       <c r="AB12" t="inlineStr">
         <is>
           <t>10:26</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>Ringhack på stam i bakgrund</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -2330,10 +2330,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>130961956</v>
+        <v>130960789</v>
       </c>
       <c r="B17" t="n">
-        <v>79862</v>
+        <v>79243</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2341,21 +2341,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6453</v>
+        <v>6425</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2365,10 +2365,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>446084</v>
+        <v>446284</v>
       </c>
       <c r="R17" t="n">
-        <v>6759981</v>
+        <v>6759886</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2411,11 +2411,6 @@
       <c r="AB17" t="inlineStr">
         <is>
           <t>10:26</t>
-        </is>
-      </c>
-      <c r="AC17" t="inlineStr">
-        <is>
-          <t>Miljöbilder</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2442,7 +2437,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>130960789</v>
+        <v>130960843</v>
       </c>
       <c r="B18" t="n">
         <v>79243</v>
@@ -2477,10 +2472,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>446284</v>
+        <v>446247</v>
       </c>
       <c r="R18" t="n">
-        <v>6759886</v>
+        <v>6759903</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2549,10 +2544,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>130960843</v>
+        <v>130961956</v>
       </c>
       <c r="B19" t="n">
-        <v>79243</v>
+        <v>79862</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2560,21 +2555,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6425</v>
+        <v>6453</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2584,10 +2579,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>446247</v>
+        <v>446084</v>
       </c>
       <c r="R19" t="n">
-        <v>6759903</v>
+        <v>6759981</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2630,6 +2625,11 @@
       <c r="AB19" t="inlineStr">
         <is>
           <t>10:26</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>Miljöbilder</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2875,10 +2875,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>130962722</v>
+        <v>130963976</v>
       </c>
       <c r="B22" t="n">
-        <v>79862</v>
+        <v>79243</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2886,21 +2886,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6453</v>
+        <v>6425</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2910,10 +2910,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>446008</v>
+        <v>445929</v>
       </c>
       <c r="R22" t="n">
-        <v>6759948</v>
+        <v>6760099</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2945,7 +2945,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>10:26</t>
+          <t>14:08</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -2955,7 +2955,12 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>10:26</t>
+          <t>14:08</t>
+        </is>
+      </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>Miljöbild</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -2982,7 +2987,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>130962640</v>
+        <v>130962722</v>
       </c>
       <c r="B23" t="n">
         <v>79862</v>
@@ -3017,10 +3022,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>446038</v>
+        <v>446008</v>
       </c>
       <c r="R23" t="n">
-        <v>6759945</v>
+        <v>6759948</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3089,10 +3094,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>130963976</v>
+        <v>130962640</v>
       </c>
       <c r="B24" t="n">
-        <v>79243</v>
+        <v>79862</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3100,21 +3105,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6425</v>
+        <v>6453</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3124,10 +3129,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>445929</v>
+        <v>446038</v>
       </c>
       <c r="R24" t="n">
-        <v>6760099</v>
+        <v>6759945</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3159,7 +3164,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>14:08</t>
+          <t>10:26</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3169,12 +3174,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>14:08</t>
-        </is>
-      </c>
-      <c r="AC24" t="inlineStr">
-        <is>
-          <t>Miljöbild</t>
+          <t>10:26</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3420,7 +3420,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>130961461</v>
+        <v>130961750</v>
       </c>
       <c r="B27" t="n">
         <v>79243</v>
@@ -3455,10 +3455,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>446088</v>
+        <v>446098</v>
       </c>
       <c r="R27" t="n">
-        <v>6760088</v>
+        <v>6760061</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3501,6 +3501,11 @@
       <c r="AB27" t="inlineStr">
         <is>
           <t>10:26</t>
+        </is>
+      </c>
+      <c r="AC27" t="inlineStr">
+        <is>
+          <t>Rikligt i en radie av ca 50 meter</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3527,7 +3532,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>130961750</v>
+        <v>130961461</v>
       </c>
       <c r="B28" t="n">
         <v>79243</v>
@@ -3562,10 +3567,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>446098</v>
+        <v>446088</v>
       </c>
       <c r="R28" t="n">
-        <v>6760061</v>
+        <v>6760088</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3608,11 +3613,6 @@
       <c r="AB28" t="inlineStr">
         <is>
           <t>10:26</t>
-        </is>
-      </c>
-      <c r="AC28" t="inlineStr">
-        <is>
-          <t>Rikligt i en radie av ca 50 meter</t>
         </is>
       </c>
       <c r="AD28" t="b">

--- a/artfynd/A 58169-2025 artfynd.xlsx
+++ b/artfynd/A 58169-2025 artfynd.xlsx
@@ -1021,10 +1021,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>130960607</v>
+        <v>130963816</v>
       </c>
       <c r="B5" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1032,39 +1032,34 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P5" t="inlineStr">
         <is>
           <t>Effaråsen, Dlr</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>446240</v>
+        <v>445932</v>
       </c>
       <c r="R5" t="n">
-        <v>6759818</v>
+        <v>6760079</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1096,7 +1091,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>10:26</t>
+          <t>14:08</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1106,7 +1101,12 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>10:26</t>
+          <t>14:08</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>Rikligt i närområdet</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1133,10 +1133,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>130963816</v>
+        <v>130960607</v>
       </c>
       <c r="B6" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1144,34 +1144,39 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P6" t="inlineStr">
         <is>
           <t>Effaråsen, Dlr</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>445932</v>
+        <v>446240</v>
       </c>
       <c r="R6" t="n">
-        <v>6760079</v>
+        <v>6759818</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1203,7 +1208,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>14:08</t>
+          <t>10:26</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1213,12 +1218,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>14:08</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>Rikligt i närområdet</t>
+          <t>10:26</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1459,50 +1459,45 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>130960395</v>
+        <v>130962883</v>
       </c>
       <c r="B9" t="n">
-        <v>8451</v>
+        <v>79243</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>106545</v>
+        <v>6425</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="P9" t="inlineStr">
         <is>
           <t>Effaråsen, Dlr</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>446272</v>
+        <v>445987</v>
       </c>
       <c r="R9" t="n">
-        <v>6759739</v>
+        <v>6759938</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1571,45 +1566,50 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>130962883</v>
+        <v>130960395</v>
       </c>
       <c r="B10" t="n">
-        <v>79243</v>
+        <v>8451</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6425</v>
+        <v>106545</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="P10" t="inlineStr">
         <is>
           <t>Effaråsen, Dlr</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>445987</v>
+        <v>446272</v>
       </c>
       <c r="R10" t="n">
-        <v>6759938</v>
+        <v>6759739</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1678,10 +1678,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>130961218</v>
+        <v>130961179</v>
       </c>
       <c r="B11" t="n">
-        <v>57884</v>
+        <v>79862</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1689,29 +1689,24 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100109</v>
+        <v>6453</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P11" t="inlineStr">
         <is>
           <t>Effaråsen, Dlr</t>
@@ -1764,6 +1759,11 @@
       <c r="AB11" t="inlineStr">
         <is>
           <t>10:26</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>Ringhack på stam i bakgrund</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1790,10 +1790,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>130961179</v>
+        <v>130961218</v>
       </c>
       <c r="B12" t="n">
-        <v>79862</v>
+        <v>57884</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1801,24 +1801,29 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6453</v>
+        <v>100109</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P12" t="inlineStr">
         <is>
           <t>Effaråsen, Dlr</t>
@@ -1871,11 +1876,6 @@
       <c r="AB12" t="inlineStr">
         <is>
           <t>10:26</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>Ringhack på stam i bakgrund</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -2437,10 +2437,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>130960843</v>
+        <v>130961956</v>
       </c>
       <c r="B18" t="n">
-        <v>79243</v>
+        <v>79862</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2448,21 +2448,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6425</v>
+        <v>6453</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2472,10 +2472,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>446247</v>
+        <v>446084</v>
       </c>
       <c r="R18" t="n">
-        <v>6759903</v>
+        <v>6759981</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2518,6 +2518,11 @@
       <c r="AB18" t="inlineStr">
         <is>
           <t>10:26</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>Miljöbilder</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2544,10 +2549,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>130961956</v>
+        <v>130960843</v>
       </c>
       <c r="B19" t="n">
-        <v>79862</v>
+        <v>79243</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2555,21 +2560,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6453</v>
+        <v>6425</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2579,10 +2584,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>446084</v>
+        <v>446247</v>
       </c>
       <c r="R19" t="n">
-        <v>6759981</v>
+        <v>6759903</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2625,11 +2630,6 @@
       <c r="AB19" t="inlineStr">
         <is>
           <t>10:26</t>
-        </is>
-      </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>Miljöbilder</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2875,10 +2875,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>130963976</v>
+        <v>130962722</v>
       </c>
       <c r="B22" t="n">
-        <v>79243</v>
+        <v>79862</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2886,21 +2886,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6425</v>
+        <v>6453</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2910,10 +2910,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>445929</v>
+        <v>446008</v>
       </c>
       <c r="R22" t="n">
-        <v>6760099</v>
+        <v>6759948</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2945,7 +2945,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>14:08</t>
+          <t>10:26</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -2955,12 +2955,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>14:08</t>
-        </is>
-      </c>
-      <c r="AC22" t="inlineStr">
-        <is>
-          <t>Miljöbild</t>
+          <t>10:26</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -2987,10 +2982,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>130962722</v>
+        <v>130963976</v>
       </c>
       <c r="B23" t="n">
-        <v>79862</v>
+        <v>79243</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2998,21 +2993,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6453</v>
+        <v>6425</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3022,10 +3017,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>446008</v>
+        <v>445929</v>
       </c>
       <c r="R23" t="n">
-        <v>6759948</v>
+        <v>6760099</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3057,7 +3052,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>10:26</t>
+          <t>14:08</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3067,7 +3062,12 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>10:26</t>
+          <t>14:08</t>
+        </is>
+      </c>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>Miljöbild</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3420,10 +3420,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>130961750</v>
+        <v>130962736</v>
       </c>
       <c r="B27" t="n">
-        <v>79243</v>
+        <v>79833</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3431,21 +3431,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6425</v>
+        <v>229821</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3455,10 +3455,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>446098</v>
+        <v>446008</v>
       </c>
       <c r="R27" t="n">
-        <v>6760061</v>
+        <v>6759948</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3501,11 +3501,6 @@
       <c r="AB27" t="inlineStr">
         <is>
           <t>10:26</t>
-        </is>
-      </c>
-      <c r="AC27" t="inlineStr">
-        <is>
-          <t>Rikligt i en radie av ca 50 meter</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3639,10 +3634,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>130963807</v>
+        <v>130961750</v>
       </c>
       <c r="B29" t="n">
-        <v>57881</v>
+        <v>79243</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3650,39 +3645,34 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P29" t="inlineStr">
         <is>
           <t>Effaråsen, Dlr</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>445932</v>
+        <v>446098</v>
       </c>
       <c r="R29" t="n">
-        <v>6760079</v>
+        <v>6760061</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3714,7 +3704,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>14:08</t>
+          <t>10:26</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -3724,7 +3714,12 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>14:08</t>
+          <t>10:26</t>
+        </is>
+      </c>
+      <c r="AC29" t="inlineStr">
+        <is>
+          <t>Rikligt i en radie av ca 50 meter</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3751,10 +3746,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>130962736</v>
+        <v>130963807</v>
       </c>
       <c r="B30" t="n">
-        <v>79833</v>
+        <v>57881</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3762,34 +3757,39 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>229821</v>
+        <v>100049</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P30" t="inlineStr">
         <is>
           <t>Effaråsen, Dlr</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>446008</v>
+        <v>445932</v>
       </c>
       <c r="R30" t="n">
-        <v>6759948</v>
+        <v>6760079</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3821,7 +3821,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>10:26</t>
+          <t>14:08</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -3831,7 +3831,7 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>10:26</t>
+          <t>14:08</t>
         </is>
       </c>
       <c r="AD30" t="b">

--- a/artfynd/A 58169-2025 artfynd.xlsx
+++ b/artfynd/A 58169-2025 artfynd.xlsx
@@ -1245,7 +1245,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>130961962</v>
+        <v>130961458</v>
       </c>
       <c r="B7" t="n">
         <v>79243</v>
@@ -1280,10 +1280,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>446084</v>
+        <v>446059</v>
       </c>
       <c r="R7" t="n">
-        <v>6759981</v>
+        <v>6760088</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1352,7 +1352,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>130961458</v>
+        <v>130961962</v>
       </c>
       <c r="B8" t="n">
         <v>79243</v>
@@ -1387,10 +1387,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>446059</v>
+        <v>446084</v>
       </c>
       <c r="R8" t="n">
-        <v>6760088</v>
+        <v>6759981</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -2330,7 +2330,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>130960789</v>
+        <v>130960843</v>
       </c>
       <c r="B17" t="n">
         <v>79243</v>
@@ -2365,10 +2365,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>446284</v>
+        <v>446247</v>
       </c>
       <c r="R17" t="n">
-        <v>6759886</v>
+        <v>6759903</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2437,10 +2437,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>130961956</v>
+        <v>130960789</v>
       </c>
       <c r="B18" t="n">
-        <v>79862</v>
+        <v>79243</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2448,21 +2448,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6453</v>
+        <v>6425</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2472,10 +2472,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>446084</v>
+        <v>446284</v>
       </c>
       <c r="R18" t="n">
-        <v>6759981</v>
+        <v>6759886</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2518,11 +2518,6 @@
       <c r="AB18" t="inlineStr">
         <is>
           <t>10:26</t>
-        </is>
-      </c>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>Miljöbilder</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2549,10 +2544,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>130960843</v>
+        <v>130961956</v>
       </c>
       <c r="B19" t="n">
-        <v>79243</v>
+        <v>79862</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2560,21 +2555,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6425</v>
+        <v>6453</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2584,10 +2579,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>446247</v>
+        <v>446084</v>
       </c>
       <c r="R19" t="n">
-        <v>6759903</v>
+        <v>6759981</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2630,6 +2625,11 @@
       <c r="AB19" t="inlineStr">
         <is>
           <t>10:26</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>Miljöbilder</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2875,10 +2875,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>130962722</v>
+        <v>130963976</v>
       </c>
       <c r="B22" t="n">
-        <v>79862</v>
+        <v>79243</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2886,21 +2886,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6453</v>
+        <v>6425</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2910,10 +2910,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>446008</v>
+        <v>445929</v>
       </c>
       <c r="R22" t="n">
-        <v>6759948</v>
+        <v>6760099</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2945,7 +2945,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>10:26</t>
+          <t>14:08</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -2955,7 +2955,12 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>10:26</t>
+          <t>14:08</t>
+        </is>
+      </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>Miljöbild</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -2982,10 +2987,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>130963976</v>
+        <v>130962722</v>
       </c>
       <c r="B23" t="n">
-        <v>79243</v>
+        <v>79862</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2993,21 +2998,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6425</v>
+        <v>6453</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3017,10 +3022,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>445929</v>
+        <v>446008</v>
       </c>
       <c r="R23" t="n">
-        <v>6760099</v>
+        <v>6759948</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3052,7 +3057,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>14:08</t>
+          <t>10:26</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3062,12 +3067,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>14:08</t>
-        </is>
-      </c>
-      <c r="AC23" t="inlineStr">
-        <is>
-          <t>Miljöbild</t>
+          <t>10:26</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3527,7 +3527,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>130961461</v>
+        <v>130961750</v>
       </c>
       <c r="B28" t="n">
         <v>79243</v>
@@ -3562,10 +3562,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>446088</v>
+        <v>446098</v>
       </c>
       <c r="R28" t="n">
-        <v>6760088</v>
+        <v>6760061</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3608,6 +3608,11 @@
       <c r="AB28" t="inlineStr">
         <is>
           <t>10:26</t>
+        </is>
+      </c>
+      <c r="AC28" t="inlineStr">
+        <is>
+          <t>Rikligt i en radie av ca 50 meter</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3634,7 +3639,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>130961750</v>
+        <v>130961461</v>
       </c>
       <c r="B29" t="n">
         <v>79243</v>
@@ -3669,10 +3674,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>446098</v>
+        <v>446088</v>
       </c>
       <c r="R29" t="n">
-        <v>6760061</v>
+        <v>6760088</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3715,11 +3720,6 @@
       <c r="AB29" t="inlineStr">
         <is>
           <t>10:26</t>
-        </is>
-      </c>
-      <c r="AC29" t="inlineStr">
-        <is>
-          <t>Rikligt i en radie av ca 50 meter</t>
         </is>
       </c>
       <c r="AD29" t="b">

--- a/artfynd/A 58169-2025 artfynd.xlsx
+++ b/artfynd/A 58169-2025 artfynd.xlsx
@@ -1024,7 +1024,7 @@
         <v>130963816</v>
       </c>
       <c r="B5" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1245,10 +1245,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>130961458</v>
+        <v>130961962</v>
       </c>
       <c r="B7" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1280,10 +1280,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>446059</v>
+        <v>446084</v>
       </c>
       <c r="R7" t="n">
-        <v>6760088</v>
+        <v>6759981</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1352,10 +1352,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>130961962</v>
+        <v>130961458</v>
       </c>
       <c r="B8" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1387,10 +1387,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>446084</v>
+        <v>446059</v>
       </c>
       <c r="R8" t="n">
-        <v>6759981</v>
+        <v>6760088</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1462,7 +1462,7 @@
         <v>130962883</v>
       </c>
       <c r="B9" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1678,10 +1678,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>130961179</v>
+        <v>130961218</v>
       </c>
       <c r="B11" t="n">
-        <v>79862</v>
+        <v>57884</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1689,24 +1689,29 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6453</v>
+        <v>100109</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P11" t="inlineStr">
         <is>
           <t>Effaråsen, Dlr</t>
@@ -1759,11 +1764,6 @@
       <c r="AB11" t="inlineStr">
         <is>
           <t>10:26</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>Ringhack på stam i bakgrund</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1790,10 +1790,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>130961218</v>
+        <v>130961179</v>
       </c>
       <c r="B12" t="n">
-        <v>57884</v>
+        <v>79863</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1801,29 +1801,24 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>100109</v>
+        <v>6453</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P12" t="inlineStr">
         <is>
           <t>Effaråsen, Dlr</t>
@@ -1876,6 +1871,11 @@
       <c r="AB12" t="inlineStr">
         <is>
           <t>10:26</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>Ringhack på stam i bakgrund</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1905,7 +1905,7 @@
         <v>130963873</v>
       </c>
       <c r="B13" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
         <v>130961060</v>
       </c>
       <c r="B14" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2119,7 +2119,7 @@
         <v>130961105</v>
       </c>
       <c r="B15" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         <v>130963950</v>
       </c>
       <c r="B16" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2330,10 +2330,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>130960843</v>
+        <v>130960789</v>
       </c>
       <c r="B17" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2365,10 +2365,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>446247</v>
+        <v>446284</v>
       </c>
       <c r="R17" t="n">
-        <v>6759903</v>
+        <v>6759886</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2437,10 +2437,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>130960789</v>
+        <v>130960378</v>
       </c>
       <c r="B18" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2448,34 +2448,39 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P18" t="inlineStr">
         <is>
           <t>Effaråsen, Dlr</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>446284</v>
+        <v>446272</v>
       </c>
       <c r="R18" t="n">
-        <v>6759886</v>
+        <v>6759739</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2547,7 +2552,7 @@
         <v>130961956</v>
       </c>
       <c r="B19" t="n">
-        <v>79862</v>
+        <v>79863</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2656,10 +2661,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>130960378</v>
+        <v>130960843</v>
       </c>
       <c r="B20" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2667,39 +2672,34 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P20" t="inlineStr">
         <is>
           <t>Effaråsen, Dlr</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>446272</v>
+        <v>446247</v>
       </c>
       <c r="R20" t="n">
-        <v>6759739</v>
+        <v>6759903</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2771,7 +2771,7 @@
         <v>130960631</v>
       </c>
       <c r="B21" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2875,10 +2875,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>130963976</v>
+        <v>130962722</v>
       </c>
       <c r="B22" t="n">
-        <v>79243</v>
+        <v>79863</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2886,21 +2886,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6425</v>
+        <v>6453</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2910,10 +2910,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>445929</v>
+        <v>446008</v>
       </c>
       <c r="R22" t="n">
-        <v>6760099</v>
+        <v>6759948</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2945,7 +2945,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>14:08</t>
+          <t>10:26</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -2955,12 +2955,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>14:08</t>
-        </is>
-      </c>
-      <c r="AC22" t="inlineStr">
-        <is>
-          <t>Miljöbild</t>
+          <t>10:26</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -2987,10 +2982,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>130962722</v>
+        <v>130962640</v>
       </c>
       <c r="B23" t="n">
-        <v>79862</v>
+        <v>79863</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -3022,10 +3017,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>446008</v>
+        <v>446038</v>
       </c>
       <c r="R23" t="n">
-        <v>6759948</v>
+        <v>6759945</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3094,10 +3089,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>130962640</v>
+        <v>130963976</v>
       </c>
       <c r="B24" t="n">
-        <v>79862</v>
+        <v>79244</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3105,21 +3100,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6453</v>
+        <v>6425</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3129,10 +3124,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>446038</v>
+        <v>445929</v>
       </c>
       <c r="R24" t="n">
-        <v>6759945</v>
+        <v>6760099</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3164,7 +3159,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>10:26</t>
+          <t>14:08</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3174,7 +3169,12 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>10:26</t>
+          <t>14:08</t>
+        </is>
+      </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>Miljöbild</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3204,7 +3204,7 @@
         <v>130962090</v>
       </c>
       <c r="B25" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3420,10 +3420,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>130962736</v>
+        <v>130961461</v>
       </c>
       <c r="B27" t="n">
-        <v>79833</v>
+        <v>79244</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3431,21 +3431,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>229821</v>
+        <v>6425</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3455,10 +3455,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>446008</v>
+        <v>446088</v>
       </c>
       <c r="R27" t="n">
-        <v>6759948</v>
+        <v>6760088</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3530,7 +3530,7 @@
         <v>130961750</v>
       </c>
       <c r="B28" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3639,10 +3639,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>130961461</v>
+        <v>130963807</v>
       </c>
       <c r="B29" t="n">
-        <v>79243</v>
+        <v>57881</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3650,34 +3650,39 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P29" t="inlineStr">
         <is>
           <t>Effaråsen, Dlr</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>446088</v>
+        <v>445932</v>
       </c>
       <c r="R29" t="n">
-        <v>6760088</v>
+        <v>6760079</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3709,7 +3714,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>10:26</t>
+          <t>14:08</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -3719,7 +3724,7 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>10:26</t>
+          <t>14:08</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3746,10 +3751,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>130963807</v>
+        <v>130962736</v>
       </c>
       <c r="B30" t="n">
-        <v>57881</v>
+        <v>79834</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3757,39 +3762,34 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>100049</v>
+        <v>229821</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P30" t="inlineStr">
         <is>
           <t>Effaråsen, Dlr</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>445932</v>
+        <v>446008</v>
       </c>
       <c r="R30" t="n">
-        <v>6760079</v>
+        <v>6759948</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3821,7 +3821,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>14:08</t>
+          <t>10:26</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -3831,7 +3831,7 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>14:08</t>
+          <t>10:26</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -3861,7 +3861,7 @@
         <v>130964752</v>
       </c>
       <c r="B31" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3968,7 +3968,7 @@
         <v>130964305</v>
       </c>
       <c r="B32" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>130962676</v>
       </c>
       <c r="B33" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -4182,7 +4182,7 @@
         <v>130961219</v>
       </c>
       <c r="B34" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>

--- a/artfynd/A 58169-2025 artfynd.xlsx
+++ b/artfynd/A 58169-2025 artfynd.xlsx
@@ -1021,10 +1021,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>130963816</v>
+        <v>130960607</v>
       </c>
       <c r="B5" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1032,34 +1032,39 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr">
         <is>
           <t>Effaråsen, Dlr</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>445932</v>
+        <v>446240</v>
       </c>
       <c r="R5" t="n">
-        <v>6760079</v>
+        <v>6759818</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1091,7 +1096,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>14:08</t>
+          <t>10:26</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1101,12 +1106,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>14:08</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>Rikligt i närområdet</t>
+          <t>10:26</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1133,10 +1133,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>130960607</v>
+        <v>130963816</v>
       </c>
       <c r="B6" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1144,39 +1144,34 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P6" t="inlineStr">
         <is>
           <t>Effaråsen, Dlr</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>446240</v>
+        <v>445932</v>
       </c>
       <c r="R6" t="n">
-        <v>6759818</v>
+        <v>6760079</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1208,7 +1203,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>10:26</t>
+          <t>14:08</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1218,7 +1213,12 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>10:26</t>
+          <t>14:08</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>Rikligt i närområdet</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1678,10 +1678,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>130961218</v>
+        <v>130961179</v>
       </c>
       <c r="B11" t="n">
-        <v>57884</v>
+        <v>79863</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1689,29 +1689,24 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100109</v>
+        <v>6453</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P11" t="inlineStr">
         <is>
           <t>Effaråsen, Dlr</t>
@@ -1764,6 +1759,11 @@
       <c r="AB11" t="inlineStr">
         <is>
           <t>10:26</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>Ringhack på stam i bakgrund</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1790,10 +1790,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>130961179</v>
+        <v>130961218</v>
       </c>
       <c r="B12" t="n">
-        <v>79863</v>
+        <v>57884</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1801,24 +1801,29 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6453</v>
+        <v>100109</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P12" t="inlineStr">
         <is>
           <t>Effaråsen, Dlr</t>
@@ -1871,11 +1876,6 @@
       <c r="AB12" t="inlineStr">
         <is>
           <t>10:26</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>Ringhack på stam i bakgrund</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1902,7 +1902,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>130963873</v>
+        <v>130961060</v>
       </c>
       <c r="B13" t="n">
         <v>79244</v>
@@ -1937,10 +1937,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>445938</v>
+        <v>446138</v>
       </c>
       <c r="R13" t="n">
-        <v>6760155</v>
+        <v>6759967</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1972,7 +1972,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>14:08</t>
+          <t>10:26</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -1982,7 +1982,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>14:08</t>
+          <t>10:26</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2009,7 +2009,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>130961060</v>
+        <v>130961105</v>
       </c>
       <c r="B14" t="n">
         <v>79244</v>
@@ -2044,10 +2044,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>446138</v>
+        <v>446124</v>
       </c>
       <c r="R14" t="n">
-        <v>6759967</v>
+        <v>6759989</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2116,7 +2116,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>130961105</v>
+        <v>130963950</v>
       </c>
       <c r="B15" t="n">
         <v>79244</v>
@@ -2151,10 +2151,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>446124</v>
+        <v>445926</v>
       </c>
       <c r="R15" t="n">
-        <v>6759989</v>
+        <v>6760113</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2186,7 +2186,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>10:26</t>
+          <t>14:08</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2196,7 +2196,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>10:26</t>
+          <t>14:08</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2223,7 +2223,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>130963950</v>
+        <v>130963873</v>
       </c>
       <c r="B16" t="n">
         <v>79244</v>
@@ -2258,10 +2258,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>445926</v>
+        <v>445938</v>
       </c>
       <c r="R16" t="n">
-        <v>6760113</v>
+        <v>6760155</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2330,10 +2330,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>130960789</v>
+        <v>130960378</v>
       </c>
       <c r="B17" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2341,34 +2341,39 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P17" t="inlineStr">
         <is>
           <t>Effaråsen, Dlr</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>446284</v>
+        <v>446272</v>
       </c>
       <c r="R17" t="n">
-        <v>6759886</v>
+        <v>6759739</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2437,10 +2442,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>130960378</v>
+        <v>130960789</v>
       </c>
       <c r="B18" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2448,39 +2453,34 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P18" t="inlineStr">
         <is>
           <t>Effaråsen, Dlr</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>446272</v>
+        <v>446284</v>
       </c>
       <c r="R18" t="n">
-        <v>6759739</v>
+        <v>6759886</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2875,10 +2875,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>130962722</v>
+        <v>130963976</v>
       </c>
       <c r="B22" t="n">
-        <v>79863</v>
+        <v>79244</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2886,21 +2886,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6453</v>
+        <v>6425</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2910,10 +2910,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>446008</v>
+        <v>445929</v>
       </c>
       <c r="R22" t="n">
-        <v>6759948</v>
+        <v>6760099</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2945,7 +2945,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>10:26</t>
+          <t>14:08</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -2955,7 +2955,12 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>10:26</t>
+          <t>14:08</t>
+        </is>
+      </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>Miljöbild</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -2982,7 +2987,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>130962640</v>
+        <v>130962722</v>
       </c>
       <c r="B23" t="n">
         <v>79863</v>
@@ -3017,10 +3022,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>446038</v>
+        <v>446008</v>
       </c>
       <c r="R23" t="n">
-        <v>6759945</v>
+        <v>6759948</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3089,10 +3094,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>130963976</v>
+        <v>130962640</v>
       </c>
       <c r="B24" t="n">
-        <v>79244</v>
+        <v>79863</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3100,21 +3105,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6425</v>
+        <v>6453</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3124,10 +3129,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>445929</v>
+        <v>446038</v>
       </c>
       <c r="R24" t="n">
-        <v>6760099</v>
+        <v>6759945</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3159,7 +3164,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>14:08</t>
+          <t>10:26</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3169,12 +3174,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>14:08</t>
-        </is>
-      </c>
-      <c r="AC24" t="inlineStr">
-        <is>
-          <t>Miljöbild</t>
+          <t>10:26</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3420,10 +3420,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>130961461</v>
+        <v>130962736</v>
       </c>
       <c r="B27" t="n">
-        <v>79244</v>
+        <v>79834</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3431,21 +3431,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6425</v>
+        <v>229821</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3455,10 +3455,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>446088</v>
+        <v>446008</v>
       </c>
       <c r="R27" t="n">
-        <v>6760088</v>
+        <v>6759948</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3527,7 +3527,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>130961750</v>
+        <v>130961461</v>
       </c>
       <c r="B28" t="n">
         <v>79244</v>
@@ -3562,10 +3562,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>446098</v>
+        <v>446088</v>
       </c>
       <c r="R28" t="n">
-        <v>6760061</v>
+        <v>6760088</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3608,11 +3608,6 @@
       <c r="AB28" t="inlineStr">
         <is>
           <t>10:26</t>
-        </is>
-      </c>
-      <c r="AC28" t="inlineStr">
-        <is>
-          <t>Rikligt i en radie av ca 50 meter</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3639,10 +3634,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>130963807</v>
+        <v>130961750</v>
       </c>
       <c r="B29" t="n">
-        <v>57881</v>
+        <v>79244</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3650,39 +3645,34 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P29" t="inlineStr">
         <is>
           <t>Effaråsen, Dlr</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>445932</v>
+        <v>446098</v>
       </c>
       <c r="R29" t="n">
-        <v>6760079</v>
+        <v>6760061</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3714,7 +3704,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>14:08</t>
+          <t>10:26</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -3724,7 +3714,12 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>14:08</t>
+          <t>10:26</t>
+        </is>
+      </c>
+      <c r="AC29" t="inlineStr">
+        <is>
+          <t>Rikligt i en radie av ca 50 meter</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3751,10 +3746,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>130962736</v>
+        <v>130963807</v>
       </c>
       <c r="B30" t="n">
-        <v>79834</v>
+        <v>57881</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3762,34 +3757,39 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>229821</v>
+        <v>100049</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P30" t="inlineStr">
         <is>
           <t>Effaråsen, Dlr</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>446008</v>
+        <v>445932</v>
       </c>
       <c r="R30" t="n">
-        <v>6759948</v>
+        <v>6760079</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3821,7 +3821,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>10:26</t>
+          <t>14:08</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -3831,7 +3831,7 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>10:26</t>
+          <t>14:08</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -3965,7 +3965,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>130964305</v>
+        <v>130961219</v>
       </c>
       <c r="B32" t="n">
         <v>79244</v>
@@ -4000,10 +4000,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>445980</v>
+        <v>446122</v>
       </c>
       <c r="R32" t="n">
-        <v>6759927</v>
+        <v>6760020</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4035,7 +4035,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>14:08</t>
+          <t>10:26</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -4045,7 +4045,7 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>14:08</t>
+          <t>10:26</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4179,7 +4179,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>130961219</v>
+        <v>130964305</v>
       </c>
       <c r="B34" t="n">
         <v>79244</v>
@@ -4214,10 +4214,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>446122</v>
+        <v>445980</v>
       </c>
       <c r="R34" t="n">
-        <v>6760020</v>
+        <v>6759927</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4249,7 +4249,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>10:26</t>
+          <t>14:08</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -4259,7 +4259,7 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>10:26</t>
+          <t>14:08</t>
         </is>
       </c>
       <c r="AD34" t="b">

--- a/artfynd/A 58169-2025 artfynd.xlsx
+++ b/artfynd/A 58169-2025 artfynd.xlsx
@@ -1021,10 +1021,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>130960607</v>
+        <v>130963816</v>
       </c>
       <c r="B5" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1032,39 +1032,34 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P5" t="inlineStr">
         <is>
           <t>Effaråsen, Dlr</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>446240</v>
+        <v>445932</v>
       </c>
       <c r="R5" t="n">
-        <v>6759818</v>
+        <v>6760079</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1096,7 +1091,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>10:26</t>
+          <t>14:08</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1106,7 +1101,12 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>10:26</t>
+          <t>14:08</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>Rikligt i närområdet</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1133,10 +1133,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>130963816</v>
+        <v>130960607</v>
       </c>
       <c r="B6" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1144,34 +1144,39 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P6" t="inlineStr">
         <is>
           <t>Effaråsen, Dlr</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>445932</v>
+        <v>446240</v>
       </c>
       <c r="R6" t="n">
-        <v>6760079</v>
+        <v>6759818</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1203,7 +1208,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>14:08</t>
+          <t>10:26</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1213,12 +1218,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>14:08</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>Rikligt i närområdet</t>
+          <t>10:26</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1902,7 +1902,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>130961060</v>
+        <v>130963873</v>
       </c>
       <c r="B13" t="n">
         <v>79244</v>
@@ -1937,10 +1937,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>446138</v>
+        <v>445938</v>
       </c>
       <c r="R13" t="n">
-        <v>6759967</v>
+        <v>6760155</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1972,7 +1972,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>10:26</t>
+          <t>14:08</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -1982,7 +1982,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>10:26</t>
+          <t>14:08</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2009,7 +2009,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>130961105</v>
+        <v>130961060</v>
       </c>
       <c r="B14" t="n">
         <v>79244</v>
@@ -2044,10 +2044,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>446124</v>
+        <v>446138</v>
       </c>
       <c r="R14" t="n">
-        <v>6759989</v>
+        <v>6759967</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2116,7 +2116,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>130963950</v>
+        <v>130961105</v>
       </c>
       <c r="B15" t="n">
         <v>79244</v>
@@ -2151,10 +2151,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>445926</v>
+        <v>446124</v>
       </c>
       <c r="R15" t="n">
-        <v>6760113</v>
+        <v>6759989</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2186,7 +2186,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>14:08</t>
+          <t>10:26</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2196,7 +2196,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>14:08</t>
+          <t>10:26</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2223,7 +2223,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>130963873</v>
+        <v>130963950</v>
       </c>
       <c r="B16" t="n">
         <v>79244</v>
@@ -2258,10 +2258,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>445938</v>
+        <v>445926</v>
       </c>
       <c r="R16" t="n">
-        <v>6760155</v>
+        <v>6760113</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2330,10 +2330,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>130960378</v>
+        <v>130960789</v>
       </c>
       <c r="B17" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2341,39 +2341,34 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P17" t="inlineStr">
         <is>
           <t>Effaråsen, Dlr</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>446272</v>
+        <v>446284</v>
       </c>
       <c r="R17" t="n">
-        <v>6759739</v>
+        <v>6759886</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2442,7 +2437,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>130960789</v>
+        <v>130960843</v>
       </c>
       <c r="B18" t="n">
         <v>79244</v>
@@ -2477,10 +2472,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>446284</v>
+        <v>446247</v>
       </c>
       <c r="R18" t="n">
-        <v>6759886</v>
+        <v>6759903</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2549,10 +2544,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>130961956</v>
+        <v>130960378</v>
       </c>
       <c r="B19" t="n">
-        <v>79863</v>
+        <v>57884</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2560,34 +2555,39 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6453</v>
+        <v>100109</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P19" t="inlineStr">
         <is>
           <t>Effaråsen, Dlr</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>446084</v>
+        <v>446272</v>
       </c>
       <c r="R19" t="n">
-        <v>6759981</v>
+        <v>6759739</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2630,11 +2630,6 @@
       <c r="AB19" t="inlineStr">
         <is>
           <t>10:26</t>
-        </is>
-      </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>Miljöbilder</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2661,10 +2656,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>130960843</v>
+        <v>130961956</v>
       </c>
       <c r="B20" t="n">
-        <v>79244</v>
+        <v>79863</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2672,21 +2667,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6425</v>
+        <v>6453</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2696,10 +2691,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>446247</v>
+        <v>446084</v>
       </c>
       <c r="R20" t="n">
-        <v>6759903</v>
+        <v>6759981</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2742,6 +2737,11 @@
       <c r="AB20" t="inlineStr">
         <is>
           <t>10:26</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>Miljöbilder</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -3201,10 +3201,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>130962090</v>
+        <v>130961746</v>
       </c>
       <c r="B25" t="n">
-        <v>79244</v>
+        <v>57881</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3212,34 +3212,39 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P25" t="inlineStr">
         <is>
           <t>Effaråsen, Dlr</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>446080</v>
+        <v>446098</v>
       </c>
       <c r="R25" t="n">
-        <v>6759960</v>
+        <v>6760061</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3308,10 +3313,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>130961746</v>
+        <v>130962090</v>
       </c>
       <c r="B26" t="n">
-        <v>57881</v>
+        <v>79244</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3319,39 +3324,34 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P26" t="inlineStr">
         <is>
           <t>Effaråsen, Dlr</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>446098</v>
+        <v>446080</v>
       </c>
       <c r="R26" t="n">
-        <v>6760061</v>
+        <v>6759960</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3420,10 +3420,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>130962736</v>
+        <v>130963807</v>
       </c>
       <c r="B27" t="n">
-        <v>79834</v>
+        <v>57881</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3431,34 +3431,39 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>229821</v>
+        <v>100049</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P27" t="inlineStr">
         <is>
           <t>Effaråsen, Dlr</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>446008</v>
+        <v>445932</v>
       </c>
       <c r="R27" t="n">
-        <v>6759948</v>
+        <v>6760079</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3490,7 +3495,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>10:26</t>
+          <t>14:08</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3500,7 +3505,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>10:26</t>
+          <t>14:08</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3746,10 +3751,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>130963807</v>
+        <v>130962736</v>
       </c>
       <c r="B30" t="n">
-        <v>57881</v>
+        <v>79834</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3757,39 +3762,34 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>100049</v>
+        <v>229821</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P30" t="inlineStr">
         <is>
           <t>Effaråsen, Dlr</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>445932</v>
+        <v>446008</v>
       </c>
       <c r="R30" t="n">
-        <v>6760079</v>
+        <v>6759948</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3821,7 +3821,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>14:08</t>
+          <t>10:26</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -3831,7 +3831,7 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>14:08</t>
+          <t>10:26</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -3965,7 +3965,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>130961219</v>
+        <v>130964305</v>
       </c>
       <c r="B32" t="n">
         <v>79244</v>
@@ -4000,10 +4000,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>446122</v>
+        <v>445980</v>
       </c>
       <c r="R32" t="n">
-        <v>6760020</v>
+        <v>6759927</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4035,7 +4035,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>10:26</t>
+          <t>14:08</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -4045,7 +4045,7 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>10:26</t>
+          <t>14:08</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4179,7 +4179,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>130964305</v>
+        <v>130961219</v>
       </c>
       <c r="B34" t="n">
         <v>79244</v>
@@ -4214,10 +4214,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>445980</v>
+        <v>446122</v>
       </c>
       <c r="R34" t="n">
-        <v>6759927</v>
+        <v>6760020</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4249,7 +4249,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>14:08</t>
+          <t>10:26</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -4259,7 +4259,7 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>14:08</t>
+          <t>10:26</t>
         </is>
       </c>
       <c r="AD34" t="b">

--- a/artfynd/A 58169-2025 artfynd.xlsx
+++ b/artfynd/A 58169-2025 artfynd.xlsx
@@ -1021,10 +1021,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>130963816</v>
+        <v>130960607</v>
       </c>
       <c r="B5" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1032,34 +1032,39 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr">
         <is>
           <t>Effaråsen, Dlr</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>445932</v>
+        <v>446240</v>
       </c>
       <c r="R5" t="n">
-        <v>6760079</v>
+        <v>6759818</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1091,7 +1096,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>14:08</t>
+          <t>10:26</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1101,12 +1106,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>14:08</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>Rikligt i närområdet</t>
+          <t>10:26</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1133,10 +1133,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>130960607</v>
+        <v>130963816</v>
       </c>
       <c r="B6" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1144,39 +1144,34 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P6" t="inlineStr">
         <is>
           <t>Effaråsen, Dlr</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>446240</v>
+        <v>445932</v>
       </c>
       <c r="R6" t="n">
-        <v>6759818</v>
+        <v>6760079</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1208,7 +1203,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>10:26</t>
+          <t>14:08</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1218,7 +1213,12 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>10:26</t>
+          <t>14:08</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>Rikligt i närområdet</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1245,7 +1245,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>130961962</v>
+        <v>130961458</v>
       </c>
       <c r="B7" t="n">
         <v>79244</v>
@@ -1280,10 +1280,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>446084</v>
+        <v>446059</v>
       </c>
       <c r="R7" t="n">
-        <v>6759981</v>
+        <v>6760088</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1352,7 +1352,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>130961458</v>
+        <v>130961962</v>
       </c>
       <c r="B8" t="n">
         <v>79244</v>
@@ -1387,10 +1387,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>446059</v>
+        <v>446084</v>
       </c>
       <c r="R8" t="n">
-        <v>6760088</v>
+        <v>6759981</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -2116,7 +2116,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>130961105</v>
+        <v>130963950</v>
       </c>
       <c r="B15" t="n">
         <v>79244</v>
@@ -2151,10 +2151,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>446124</v>
+        <v>445926</v>
       </c>
       <c r="R15" t="n">
-        <v>6759989</v>
+        <v>6760113</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2186,7 +2186,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>10:26</t>
+          <t>14:08</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2196,7 +2196,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>10:26</t>
+          <t>14:08</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2223,7 +2223,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>130963950</v>
+        <v>130961105</v>
       </c>
       <c r="B16" t="n">
         <v>79244</v>
@@ -2258,10 +2258,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>445926</v>
+        <v>446124</v>
       </c>
       <c r="R16" t="n">
-        <v>6760113</v>
+        <v>6759989</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2293,7 +2293,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>14:08</t>
+          <t>10:26</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2303,7 +2303,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>14:08</t>
+          <t>10:26</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2544,10 +2544,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>130960378</v>
+        <v>130961956</v>
       </c>
       <c r="B19" t="n">
-        <v>57884</v>
+        <v>79863</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2555,39 +2555,34 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>100109</v>
+        <v>6453</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P19" t="inlineStr">
         <is>
           <t>Effaråsen, Dlr</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>446272</v>
+        <v>446084</v>
       </c>
       <c r="R19" t="n">
-        <v>6759739</v>
+        <v>6759981</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2630,6 +2625,11 @@
       <c r="AB19" t="inlineStr">
         <is>
           <t>10:26</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>Miljöbilder</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2656,10 +2656,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>130961956</v>
+        <v>130960378</v>
       </c>
       <c r="B20" t="n">
-        <v>79863</v>
+        <v>57884</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2667,34 +2667,39 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6453</v>
+        <v>100109</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P20" t="inlineStr">
         <is>
           <t>Effaråsen, Dlr</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>446084</v>
+        <v>446272</v>
       </c>
       <c r="R20" t="n">
-        <v>6759981</v>
+        <v>6759739</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2737,11 +2742,6 @@
       <c r="AB20" t="inlineStr">
         <is>
           <t>10:26</t>
-        </is>
-      </c>
-      <c r="AC20" t="inlineStr">
-        <is>
-          <t>Miljöbilder</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -3201,10 +3201,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>130961746</v>
+        <v>130962090</v>
       </c>
       <c r="B25" t="n">
-        <v>57881</v>
+        <v>79244</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3212,39 +3212,34 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P25" t="inlineStr">
         <is>
           <t>Effaråsen, Dlr</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>446098</v>
+        <v>446080</v>
       </c>
       <c r="R25" t="n">
-        <v>6760061</v>
+        <v>6759960</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3313,10 +3308,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>130962090</v>
+        <v>130961746</v>
       </c>
       <c r="B26" t="n">
-        <v>79244</v>
+        <v>57881</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3324,34 +3319,39 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P26" t="inlineStr">
         <is>
           <t>Effaråsen, Dlr</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>446080</v>
+        <v>446098</v>
       </c>
       <c r="R26" t="n">
-        <v>6759960</v>
+        <v>6760061</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3420,10 +3420,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>130963807</v>
+        <v>130961461</v>
       </c>
       <c r="B27" t="n">
-        <v>57881</v>
+        <v>79244</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3431,39 +3431,34 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P27" t="inlineStr">
         <is>
           <t>Effaråsen, Dlr</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>445932</v>
+        <v>446088</v>
       </c>
       <c r="R27" t="n">
-        <v>6760079</v>
+        <v>6760088</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3495,7 +3490,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>14:08</t>
+          <t>10:26</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3505,7 +3500,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>14:08</t>
+          <t>10:26</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3532,7 +3527,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>130961461</v>
+        <v>130961750</v>
       </c>
       <c r="B28" t="n">
         <v>79244</v>
@@ -3567,10 +3562,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>446088</v>
+        <v>446098</v>
       </c>
       <c r="R28" t="n">
-        <v>6760088</v>
+        <v>6760061</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3613,6 +3608,11 @@
       <c r="AB28" t="inlineStr">
         <is>
           <t>10:26</t>
+        </is>
+      </c>
+      <c r="AC28" t="inlineStr">
+        <is>
+          <t>Rikligt i en radie av ca 50 meter</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3639,10 +3639,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>130961750</v>
+        <v>130963807</v>
       </c>
       <c r="B29" t="n">
-        <v>79244</v>
+        <v>57881</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3650,34 +3650,39 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P29" t="inlineStr">
         <is>
           <t>Effaråsen, Dlr</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>446098</v>
+        <v>445932</v>
       </c>
       <c r="R29" t="n">
-        <v>6760061</v>
+        <v>6760079</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3709,7 +3714,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>10:26</t>
+          <t>14:08</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -3719,12 +3724,7 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>10:26</t>
-        </is>
-      </c>
-      <c r="AC29" t="inlineStr">
-        <is>
-          <t>Rikligt i en radie av ca 50 meter</t>
+          <t>14:08</t>
         </is>
       </c>
       <c r="AD29" t="b">

--- a/artfynd/A 58169-2025 artfynd.xlsx
+++ b/artfynd/A 58169-2025 artfynd.xlsx
@@ -1245,7 +1245,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>130961458</v>
+        <v>130961962</v>
       </c>
       <c r="B7" t="n">
         <v>79244</v>
@@ -1280,10 +1280,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>446059</v>
+        <v>446084</v>
       </c>
       <c r="R7" t="n">
-        <v>6760088</v>
+        <v>6759981</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1352,7 +1352,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>130961962</v>
+        <v>130961458</v>
       </c>
       <c r="B8" t="n">
         <v>79244</v>
@@ -1387,10 +1387,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>446084</v>
+        <v>446059</v>
       </c>
       <c r="R8" t="n">
-        <v>6759981</v>
+        <v>6760088</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -2116,7 +2116,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>130963950</v>
+        <v>130961105</v>
       </c>
       <c r="B15" t="n">
         <v>79244</v>
@@ -2151,10 +2151,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>445926</v>
+        <v>446124</v>
       </c>
       <c r="R15" t="n">
-        <v>6760113</v>
+        <v>6759989</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2186,7 +2186,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>14:08</t>
+          <t>10:26</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2196,7 +2196,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>14:08</t>
+          <t>10:26</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2223,7 +2223,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>130961105</v>
+        <v>130963950</v>
       </c>
       <c r="B16" t="n">
         <v>79244</v>
@@ -2258,10 +2258,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>446124</v>
+        <v>445926</v>
       </c>
       <c r="R16" t="n">
-        <v>6759989</v>
+        <v>6760113</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2293,7 +2293,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>10:26</t>
+          <t>14:08</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2303,7 +2303,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>10:26</t>
+          <t>14:08</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -3420,10 +3420,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>130961461</v>
+        <v>130963807</v>
       </c>
       <c r="B27" t="n">
-        <v>79244</v>
+        <v>57881</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3431,34 +3431,39 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P27" t="inlineStr">
         <is>
           <t>Effaråsen, Dlr</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>446088</v>
+        <v>445932</v>
       </c>
       <c r="R27" t="n">
-        <v>6760088</v>
+        <v>6760079</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3490,7 +3495,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>10:26</t>
+          <t>14:08</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3500,7 +3505,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>10:26</t>
+          <t>14:08</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3527,10 +3532,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>130961750</v>
+        <v>130962736</v>
       </c>
       <c r="B28" t="n">
-        <v>79244</v>
+        <v>79834</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3538,21 +3543,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6425</v>
+        <v>229821</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3562,10 +3567,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>446098</v>
+        <v>446008</v>
       </c>
       <c r="R28" t="n">
-        <v>6760061</v>
+        <v>6759948</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3608,11 +3613,6 @@
       <c r="AB28" t="inlineStr">
         <is>
           <t>10:26</t>
-        </is>
-      </c>
-      <c r="AC28" t="inlineStr">
-        <is>
-          <t>Rikligt i en radie av ca 50 meter</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3639,10 +3639,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>130963807</v>
+        <v>130961461</v>
       </c>
       <c r="B29" t="n">
-        <v>57881</v>
+        <v>79244</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3650,39 +3650,34 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P29" t="inlineStr">
         <is>
           <t>Effaråsen, Dlr</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>445932</v>
+        <v>446088</v>
       </c>
       <c r="R29" t="n">
-        <v>6760079</v>
+        <v>6760088</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3714,7 +3709,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>14:08</t>
+          <t>10:26</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -3724,7 +3719,7 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>14:08</t>
+          <t>10:26</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3751,10 +3746,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>130962736</v>
+        <v>130961750</v>
       </c>
       <c r="B30" t="n">
-        <v>79834</v>
+        <v>79244</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3762,21 +3757,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>229821</v>
+        <v>6425</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3786,10 +3781,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>446008</v>
+        <v>446098</v>
       </c>
       <c r="R30" t="n">
-        <v>6759948</v>
+        <v>6760061</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3832,6 +3827,11 @@
       <c r="AB30" t="inlineStr">
         <is>
           <t>10:26</t>
+        </is>
+      </c>
+      <c r="AC30" t="inlineStr">
+        <is>
+          <t>Rikligt i en radie av ca 50 meter</t>
         </is>
       </c>
       <c r="AD30" t="b">

--- a/artfynd/A 58169-2025 artfynd.xlsx
+++ b/artfynd/A 58169-2025 artfynd.xlsx
@@ -1136,7 +1136,7 @@
         <v>130963816</v>
       </c>
       <c r="B6" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1245,10 +1245,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>130961962</v>
+        <v>130961458</v>
       </c>
       <c r="B7" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1280,10 +1280,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>446084</v>
+        <v>446059</v>
       </c>
       <c r="R7" t="n">
-        <v>6759981</v>
+        <v>6760088</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1352,10 +1352,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>130961458</v>
+        <v>130961962</v>
       </c>
       <c r="B8" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1387,10 +1387,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>446059</v>
+        <v>446084</v>
       </c>
       <c r="R8" t="n">
-        <v>6760088</v>
+        <v>6759981</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1462,7 +1462,7 @@
         <v>130962883</v>
       </c>
       <c r="B9" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1681,7 +1681,7 @@
         <v>130961179</v>
       </c>
       <c r="B11" t="n">
-        <v>79863</v>
+        <v>79864</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1902,10 +1902,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>130963873</v>
+        <v>130961060</v>
       </c>
       <c r="B13" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1937,10 +1937,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>445938</v>
+        <v>446138</v>
       </c>
       <c r="R13" t="n">
-        <v>6760155</v>
+        <v>6759967</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1972,7 +1972,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>14:08</t>
+          <t>10:26</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -1982,7 +1982,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>14:08</t>
+          <t>10:26</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2009,10 +2009,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>130961060</v>
+        <v>130963950</v>
       </c>
       <c r="B14" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2044,10 +2044,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>446138</v>
+        <v>445926</v>
       </c>
       <c r="R14" t="n">
-        <v>6759967</v>
+        <v>6760113</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2079,7 +2079,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>10:26</t>
+          <t>14:08</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>10:26</t>
+          <t>14:08</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2119,7 +2119,7 @@
         <v>130961105</v>
       </c>
       <c r="B15" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2223,10 +2223,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>130963950</v>
+        <v>130963873</v>
       </c>
       <c r="B16" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2258,10 +2258,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>445926</v>
+        <v>445938</v>
       </c>
       <c r="R16" t="n">
-        <v>6760113</v>
+        <v>6760155</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2333,7 +2333,7 @@
         <v>130960789</v>
       </c>
       <c r="B17" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2437,10 +2437,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>130960843</v>
+        <v>130961956</v>
       </c>
       <c r="B18" t="n">
-        <v>79244</v>
+        <v>79864</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2448,21 +2448,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6425</v>
+        <v>6453</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2472,10 +2472,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>446247</v>
+        <v>446084</v>
       </c>
       <c r="R18" t="n">
-        <v>6759903</v>
+        <v>6759981</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2518,6 +2518,11 @@
       <c r="AB18" t="inlineStr">
         <is>
           <t>10:26</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>Miljöbilder</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2544,10 +2549,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>130961956</v>
+        <v>130960843</v>
       </c>
       <c r="B19" t="n">
-        <v>79863</v>
+        <v>79245</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2555,21 +2560,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6453</v>
+        <v>6425</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2579,10 +2584,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>446084</v>
+        <v>446247</v>
       </c>
       <c r="R19" t="n">
-        <v>6759981</v>
+        <v>6759903</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2625,11 +2630,6 @@
       <c r="AB19" t="inlineStr">
         <is>
           <t>10:26</t>
-        </is>
-      </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>Miljöbilder</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2771,7 +2771,7 @@
         <v>130960631</v>
       </c>
       <c r="B21" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2875,10 +2875,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>130963976</v>
+        <v>130962722</v>
       </c>
       <c r="B22" t="n">
-        <v>79244</v>
+        <v>79864</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2886,21 +2886,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6425</v>
+        <v>6453</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2910,10 +2910,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>445929</v>
+        <v>446008</v>
       </c>
       <c r="R22" t="n">
-        <v>6760099</v>
+        <v>6759948</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2945,7 +2945,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>14:08</t>
+          <t>10:26</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -2955,12 +2955,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>14:08</t>
-        </is>
-      </c>
-      <c r="AC22" t="inlineStr">
-        <is>
-          <t>Miljöbild</t>
+          <t>10:26</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -2987,10 +2982,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>130962722</v>
+        <v>130962640</v>
       </c>
       <c r="B23" t="n">
-        <v>79863</v>
+        <v>79864</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -3022,10 +3017,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>446008</v>
+        <v>446038</v>
       </c>
       <c r="R23" t="n">
-        <v>6759948</v>
+        <v>6759945</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3094,10 +3089,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>130962640</v>
+        <v>130963976</v>
       </c>
       <c r="B24" t="n">
-        <v>79863</v>
+        <v>79245</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3105,21 +3100,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6453</v>
+        <v>6425</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3129,10 +3124,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>446038</v>
+        <v>445929</v>
       </c>
       <c r="R24" t="n">
-        <v>6759945</v>
+        <v>6760099</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3164,7 +3159,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>10:26</t>
+          <t>14:08</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3174,7 +3169,12 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>10:26</t>
+          <t>14:08</t>
+        </is>
+      </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>Miljöbild</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3204,7 +3204,7 @@
         <v>130962090</v>
       </c>
       <c r="B25" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3420,10 +3420,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>130963807</v>
+        <v>130962736</v>
       </c>
       <c r="B27" t="n">
-        <v>57881</v>
+        <v>79835</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3431,39 +3431,34 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>100049</v>
+        <v>229821</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P27" t="inlineStr">
         <is>
           <t>Effaråsen, Dlr</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>445932</v>
+        <v>446008</v>
       </c>
       <c r="R27" t="n">
-        <v>6760079</v>
+        <v>6759948</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3495,7 +3490,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>14:08</t>
+          <t>10:26</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3505,7 +3500,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>14:08</t>
+          <t>10:26</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3532,10 +3527,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>130962736</v>
+        <v>130961461</v>
       </c>
       <c r="B28" t="n">
-        <v>79834</v>
+        <v>79245</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3543,21 +3538,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>229821</v>
+        <v>6425</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3567,10 +3562,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>446008</v>
+        <v>446088</v>
       </c>
       <c r="R28" t="n">
-        <v>6759948</v>
+        <v>6760088</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3639,10 +3634,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>130961461</v>
+        <v>130961750</v>
       </c>
       <c r="B29" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3674,10 +3669,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>446088</v>
+        <v>446098</v>
       </c>
       <c r="R29" t="n">
-        <v>6760088</v>
+        <v>6760061</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3720,6 +3715,11 @@
       <c r="AB29" t="inlineStr">
         <is>
           <t>10:26</t>
+        </is>
+      </c>
+      <c r="AC29" t="inlineStr">
+        <is>
+          <t>Rikligt i en radie av ca 50 meter</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3746,10 +3746,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>130961750</v>
+        <v>130963807</v>
       </c>
       <c r="B30" t="n">
-        <v>79244</v>
+        <v>57881</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3757,34 +3757,39 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P30" t="inlineStr">
         <is>
           <t>Effaråsen, Dlr</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>446098</v>
+        <v>445932</v>
       </c>
       <c r="R30" t="n">
-        <v>6760061</v>
+        <v>6760079</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3816,7 +3821,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>10:26</t>
+          <t>14:08</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -3826,12 +3831,7 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>10:26</t>
-        </is>
-      </c>
-      <c r="AC30" t="inlineStr">
-        <is>
-          <t>Rikligt i en radie av ca 50 meter</t>
+          <t>14:08</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -3861,7 +3861,7 @@
         <v>130964752</v>
       </c>
       <c r="B31" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3968,7 +3968,7 @@
         <v>130964305</v>
       </c>
       <c r="B32" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -4072,10 +4072,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>130962676</v>
+        <v>130961219</v>
       </c>
       <c r="B33" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -4107,10 +4107,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>446038</v>
+        <v>446122</v>
       </c>
       <c r="R33" t="n">
-        <v>6759945</v>
+        <v>6760020</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4179,10 +4179,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>130961219</v>
+        <v>130962676</v>
       </c>
       <c r="B34" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4214,10 +4214,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>446122</v>
+        <v>446038</v>
       </c>
       <c r="R34" t="n">
-        <v>6760020</v>
+        <v>6759945</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>

--- a/artfynd/A 58169-2025 artfynd.xlsx
+++ b/artfynd/A 58169-2025 artfynd.xlsx
@@ -1021,10 +1021,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>130960607</v>
+        <v>130963816</v>
       </c>
       <c r="B5" t="n">
-        <v>57884</v>
+        <v>79245</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1032,39 +1032,34 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P5" t="inlineStr">
         <is>
           <t>Effaråsen, Dlr</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>446240</v>
+        <v>445932</v>
       </c>
       <c r="R5" t="n">
-        <v>6759818</v>
+        <v>6760079</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1096,7 +1091,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>10:26</t>
+          <t>14:08</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1106,7 +1101,12 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>10:26</t>
+          <t>14:08</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>Rikligt i närområdet</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1133,10 +1133,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>130963816</v>
+        <v>130960607</v>
       </c>
       <c r="B6" t="n">
-        <v>79245</v>
+        <v>57884</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1144,34 +1144,39 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P6" t="inlineStr">
         <is>
           <t>Effaråsen, Dlr</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>445932</v>
+        <v>446240</v>
       </c>
       <c r="R6" t="n">
-        <v>6760079</v>
+        <v>6759818</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1203,7 +1208,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>14:08</t>
+          <t>10:26</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1213,12 +1218,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>14:08</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>Rikligt i närområdet</t>
+          <t>10:26</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -2330,10 +2330,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>130960789</v>
+        <v>130961956</v>
       </c>
       <c r="B17" t="n">
-        <v>79245</v>
+        <v>79864</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2341,21 +2341,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6425</v>
+        <v>6453</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2365,10 +2365,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>446284</v>
+        <v>446084</v>
       </c>
       <c r="R17" t="n">
-        <v>6759886</v>
+        <v>6759981</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2411,6 +2411,11 @@
       <c r="AB17" t="inlineStr">
         <is>
           <t>10:26</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>Miljöbilder</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2437,10 +2442,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>130961956</v>
+        <v>130960843</v>
       </c>
       <c r="B18" t="n">
-        <v>79864</v>
+        <v>79245</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2448,21 +2453,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6453</v>
+        <v>6425</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2472,10 +2477,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>446084</v>
+        <v>446247</v>
       </c>
       <c r="R18" t="n">
-        <v>6759981</v>
+        <v>6759903</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2518,11 +2523,6 @@
       <c r="AB18" t="inlineStr">
         <is>
           <t>10:26</t>
-        </is>
-      </c>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>Miljöbilder</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2549,7 +2549,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>130960843</v>
+        <v>130960789</v>
       </c>
       <c r="B19" t="n">
         <v>79245</v>
@@ -2584,10 +2584,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>446247</v>
+        <v>446284</v>
       </c>
       <c r="R19" t="n">
-        <v>6759903</v>
+        <v>6759886</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>

--- a/artfynd/A 58169-2025 artfynd.xlsx
+++ b/artfynd/A 58169-2025 artfynd.xlsx
@@ -3420,10 +3420,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>130962736</v>
+        <v>130961461</v>
       </c>
       <c r="B27" t="n">
-        <v>79835</v>
+        <v>79245</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3431,21 +3431,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>229821</v>
+        <v>6425</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3455,10 +3455,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>446008</v>
+        <v>446088</v>
       </c>
       <c r="R27" t="n">
-        <v>6759948</v>
+        <v>6760088</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3527,7 +3527,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>130961461</v>
+        <v>130961750</v>
       </c>
       <c r="B28" t="n">
         <v>79245</v>
@@ -3562,10 +3562,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>446088</v>
+        <v>446098</v>
       </c>
       <c r="R28" t="n">
-        <v>6760088</v>
+        <v>6760061</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3608,6 +3608,11 @@
       <c r="AB28" t="inlineStr">
         <is>
           <t>10:26</t>
+        </is>
+      </c>
+      <c r="AC28" t="inlineStr">
+        <is>
+          <t>Rikligt i en radie av ca 50 meter</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3634,10 +3639,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>130961750</v>
+        <v>130963807</v>
       </c>
       <c r="B29" t="n">
-        <v>79245</v>
+        <v>57881</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3645,34 +3650,39 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P29" t="inlineStr">
         <is>
           <t>Effaråsen, Dlr</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>446098</v>
+        <v>445932</v>
       </c>
       <c r="R29" t="n">
-        <v>6760061</v>
+        <v>6760079</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3704,7 +3714,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>10:26</t>
+          <t>14:08</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -3714,12 +3724,7 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>10:26</t>
-        </is>
-      </c>
-      <c r="AC29" t="inlineStr">
-        <is>
-          <t>Rikligt i en radie av ca 50 meter</t>
+          <t>14:08</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3746,10 +3751,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>130963807</v>
+        <v>130962736</v>
       </c>
       <c r="B30" t="n">
-        <v>57881</v>
+        <v>79835</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3757,39 +3762,34 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>100049</v>
+        <v>229821</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P30" t="inlineStr">
         <is>
           <t>Effaråsen, Dlr</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>445932</v>
+        <v>446008</v>
       </c>
       <c r="R30" t="n">
-        <v>6760079</v>
+        <v>6759948</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3821,7 +3821,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>14:08</t>
+          <t>10:26</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -3831,7 +3831,7 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>14:08</t>
+          <t>10:26</t>
         </is>
       </c>
       <c r="AD30" t="b">

--- a/artfynd/A 58169-2025 artfynd.xlsx
+++ b/artfynd/A 58169-2025 artfynd.xlsx
@@ -1021,10 +1021,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>130963816</v>
+        <v>130960607</v>
       </c>
       <c r="B5" t="n">
-        <v>79245</v>
+        <v>57884</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1032,34 +1032,39 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr">
         <is>
           <t>Effaråsen, Dlr</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>445932</v>
+        <v>446240</v>
       </c>
       <c r="R5" t="n">
-        <v>6760079</v>
+        <v>6759818</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1091,7 +1096,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>14:08</t>
+          <t>10:26</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1101,12 +1106,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>14:08</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>Rikligt i närområdet</t>
+          <t>10:26</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1133,10 +1133,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>130960607</v>
+        <v>130963816</v>
       </c>
       <c r="B6" t="n">
-        <v>57884</v>
+        <v>79245</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1144,39 +1144,34 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P6" t="inlineStr">
         <is>
           <t>Effaråsen, Dlr</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>446240</v>
+        <v>445932</v>
       </c>
       <c r="R6" t="n">
-        <v>6759818</v>
+        <v>6760079</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1208,7 +1203,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>10:26</t>
+          <t>14:08</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1218,7 +1213,12 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>10:26</t>
+          <t>14:08</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>Rikligt i närområdet</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -2442,7 +2442,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>130960843</v>
+        <v>130960789</v>
       </c>
       <c r="B18" t="n">
         <v>79245</v>
@@ -2477,10 +2477,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>446247</v>
+        <v>446284</v>
       </c>
       <c r="R18" t="n">
-        <v>6759903</v>
+        <v>6759886</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2549,7 +2549,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>130960789</v>
+        <v>130960843</v>
       </c>
       <c r="B19" t="n">
         <v>79245</v>
@@ -2584,10 +2584,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>446284</v>
+        <v>446247</v>
       </c>
       <c r="R19" t="n">
-        <v>6759886</v>
+        <v>6759903</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2982,10 +2982,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>130962640</v>
+        <v>130963976</v>
       </c>
       <c r="B23" t="n">
-        <v>79864</v>
+        <v>79245</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2993,21 +2993,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6453</v>
+        <v>6425</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3017,10 +3017,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>446038</v>
+        <v>445929</v>
       </c>
       <c r="R23" t="n">
-        <v>6759945</v>
+        <v>6760099</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3052,7 +3052,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>10:26</t>
+          <t>14:08</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3062,7 +3062,12 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>10:26</t>
+          <t>14:08</t>
+        </is>
+      </c>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>Miljöbild</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3089,10 +3094,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>130963976</v>
+        <v>130962640</v>
       </c>
       <c r="B24" t="n">
-        <v>79245</v>
+        <v>79864</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3100,21 +3105,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6425</v>
+        <v>6453</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3124,10 +3129,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>445929</v>
+        <v>446038</v>
       </c>
       <c r="R24" t="n">
-        <v>6760099</v>
+        <v>6759945</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3159,7 +3164,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>14:08</t>
+          <t>10:26</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3169,12 +3174,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>14:08</t>
-        </is>
-      </c>
-      <c r="AC24" t="inlineStr">
-        <is>
-          <t>Miljöbild</t>
+          <t>10:26</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3201,10 +3201,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>130962090</v>
+        <v>130961746</v>
       </c>
       <c r="B25" t="n">
-        <v>79245</v>
+        <v>57881</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3212,34 +3212,39 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P25" t="inlineStr">
         <is>
           <t>Effaråsen, Dlr</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>446080</v>
+        <v>446098</v>
       </c>
       <c r="R25" t="n">
-        <v>6759960</v>
+        <v>6760061</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3308,10 +3313,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>130961746</v>
+        <v>130962090</v>
       </c>
       <c r="B26" t="n">
-        <v>57881</v>
+        <v>79245</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3319,39 +3324,34 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P26" t="inlineStr">
         <is>
           <t>Effaråsen, Dlr</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>446098</v>
+        <v>446080</v>
       </c>
       <c r="R26" t="n">
-        <v>6760061</v>
+        <v>6759960</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3420,10 +3420,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>130961461</v>
+        <v>130963807</v>
       </c>
       <c r="B27" t="n">
-        <v>79245</v>
+        <v>57881</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3431,34 +3431,39 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P27" t="inlineStr">
         <is>
           <t>Effaråsen, Dlr</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>446088</v>
+        <v>445932</v>
       </c>
       <c r="R27" t="n">
-        <v>6760088</v>
+        <v>6760079</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3490,7 +3495,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>10:26</t>
+          <t>14:08</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3500,7 +3505,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>10:26</t>
+          <t>14:08</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3527,7 +3532,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>130961750</v>
+        <v>130961461</v>
       </c>
       <c r="B28" t="n">
         <v>79245</v>
@@ -3562,10 +3567,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>446098</v>
+        <v>446088</v>
       </c>
       <c r="R28" t="n">
-        <v>6760061</v>
+        <v>6760088</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3608,11 +3613,6 @@
       <c r="AB28" t="inlineStr">
         <is>
           <t>10:26</t>
-        </is>
-      </c>
-      <c r="AC28" t="inlineStr">
-        <is>
-          <t>Rikligt i en radie av ca 50 meter</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3639,10 +3639,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>130963807</v>
+        <v>130961750</v>
       </c>
       <c r="B29" t="n">
-        <v>57881</v>
+        <v>79245</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3650,39 +3650,34 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P29" t="inlineStr">
         <is>
           <t>Effaråsen, Dlr</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>445932</v>
+        <v>446098</v>
       </c>
       <c r="R29" t="n">
-        <v>6760079</v>
+        <v>6760061</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3714,7 +3709,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>14:08</t>
+          <t>10:26</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -3724,7 +3719,12 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>14:08</t>
+          <t>10:26</t>
+        </is>
+      </c>
+      <c r="AC29" t="inlineStr">
+        <is>
+          <t>Rikligt i en radie av ca 50 meter</t>
         </is>
       </c>
       <c r="AD29" t="b">
